--- a/src/attributions/attributions_saliency_traj_171.xlsx
+++ b/src/attributions/attributions_saliency_traj_171.xlsx
@@ -1004,4554 +1004,4554 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.006894162390381098</v>
+        <v>0.4248493909835815</v>
       </c>
       <c r="B2" t="n">
-        <v>0.002974628238007426</v>
+        <v>0.005426384508609772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002653284696862102</v>
+        <v>0.06685727834701538</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004584918264299631</v>
+        <v>0.06719401478767395</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01890682429075241</v>
+        <v>0.1809352040290833</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004953826777637005</v>
+        <v>0.03432032093405724</v>
       </c>
       <c r="G2" t="n">
-        <v>0.005404039286077023</v>
+        <v>0.1818058490753174</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00180355878546834</v>
+        <v>0.005452326498925686</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00999618973582983</v>
+        <v>0.07488946616649628</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0005468712188303471</v>
+        <v>0.3685595393180847</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005598193034529686</v>
+        <v>0.04812284559011459</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001808914006687701</v>
+        <v>0.1490614861249924</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003887579659931362</v>
+        <v>0.02903063967823982</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01795513182878494</v>
+        <v>0.08878291398286819</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0003422664012759924</v>
+        <v>0.1162822470068932</v>
       </c>
       <c r="P2" t="n">
-        <v>0.009421487338840961</v>
+        <v>0.1365156769752502</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.003604561556130648</v>
+        <v>0.04161360859870911</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01332220993936062</v>
+        <v>0.06853383034467697</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001233537681400776</v>
+        <v>0.07860977202653885</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0008320929482579231</v>
+        <v>0.02351647615432739</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0009602001518942416</v>
+        <v>0.01757956854999065</v>
       </c>
       <c r="V2" t="n">
-        <v>0.002168912207707763</v>
+        <v>0.1475021094083786</v>
       </c>
       <c r="W2" t="n">
-        <v>0.002266746247187257</v>
+        <v>0.08852187544107437</v>
       </c>
       <c r="X2" t="n">
-        <v>0.003298085881397128</v>
+        <v>0.00268237479031086</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001388947479426861</v>
+        <v>0.04849956184625626</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.002751956693828106</v>
+        <v>0.014998534694314</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003546094987541437</v>
+        <v>0.03048841841518879</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.002819884102791548</v>
+        <v>0.06745932996273041</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0004771504900418222</v>
+        <v>0.0397246889770031</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.00354401208460331</v>
+        <v>0.08531303703784943</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.003212640294805169</v>
+        <v>0.01331600733101368</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.002267396310344338</v>
+        <v>0.004415024071931839</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.00289224274456501</v>
+        <v>0.06694962084293365</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.002568557858467102</v>
+        <v>0.02857221849262714</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.004399161785840988</v>
+        <v>0.001435991376638412</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0002749466220848262</v>
+        <v>0.06716234982013702</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.001164932386018336</v>
+        <v>0.01555701065808535</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.001482247840613127</v>
+        <v>0.05141583457589149</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.002290993463248014</v>
+        <v>0.04101992025971413</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.002001901622861624</v>
+        <v>0.03993861377239227</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.002207903657108545</v>
+        <v>0.007969466038048267</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.004277202300727367</v>
+        <v>0.005164063069969416</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.0001922286464832723</v>
+        <v>0.03189869225025177</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.001472887117415667</v>
+        <v>0.002351120114326477</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0006957759615033865</v>
+        <v>0.004755687434226274</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.002468239981681108</v>
+        <v>0.2613694369792938</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.001069278572686017</v>
+        <v>0.2067509293556213</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.00497284485027194</v>
+        <v>0.06644183397293091</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.001411041594110429</v>
+        <v>0.05530958622694016</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.003732436336576939</v>
+        <v>0.009351268410682678</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.003037003567442298</v>
+        <v>0.02139375172555447</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.001459752442315221</v>
+        <v>0.1125271916389465</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.004063579253852367</v>
+        <v>0.04361841082572937</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.01047961227595806</v>
+        <v>0.04672686383128166</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.002400613855570555</v>
+        <v>0.125167191028595</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0005353572778403759</v>
+        <v>0.229104071855545</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0006621131906285882</v>
+        <v>0.0958673432469368</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.003762767883017659</v>
+        <v>0.04468918219208717</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.007969996891915798</v>
+        <v>0.07916117459535599</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.003504270687699318</v>
+        <v>0.04337534308433533</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.002660328987985849</v>
+        <v>0.02928810007870197</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.004049820359796286</v>
+        <v>0.08980218321084976</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.002956904470920563</v>
+        <v>0.07147031277418137</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0005760969361290336</v>
+        <v>0.05247445404529572</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0009146762313321233</v>
+        <v>0.1309839487075806</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0008707811939530075</v>
+        <v>0.04316170513629913</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.000485774246044457</v>
+        <v>0.01712715998291969</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.00105435773730278</v>
+        <v>0.003471846925094724</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.001011065091006458</v>
+        <v>0.03335399925708771</v>
       </c>
       <c r="BR2" t="n">
-        <v>7.099745562300086e-05</v>
+        <v>0.007000261917710304</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.003086436074227095</v>
+        <v>0.02332337573170662</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.003803187515586615</v>
+        <v>0.003247030079364777</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.003114569233730435</v>
+        <v>0.1385784298181534</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.003995197825133801</v>
+        <v>0.007688568904995918</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.002243469469249249</v>
+        <v>0.06142471358180046</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.004412311594933271</v>
+        <v>0.1339024305343628</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.003961494192481041</v>
+        <v>0.03764727339148521</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.002101561520248652</v>
+        <v>0.01641333475708961</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.00224773189984262</v>
+        <v>0.06986048817634583</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.002990466076880693</v>
+        <v>0.04945807158946991</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.007553782779723406</v>
+        <v>0.04932324215769768</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.002016847720369697</v>
+        <v>0.08389125019311905</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.001752516953274608</v>
+        <v>0.02830179966986179</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0004258991102688015</v>
+        <v>0.005694850347936153</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0001473703741794452</v>
+        <v>0.03407266736030579</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.003587350714951754</v>
+        <v>0.01807448454201221</v>
       </c>
       <c r="CI2" t="n">
-        <v>9.6932053565979e-06</v>
+        <v>0.04426110908389091</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0008132265647873282</v>
+        <v>0.0497516468167305</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.001344685209915042</v>
+        <v>0.008224081248044968</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.001538629876449704</v>
+        <v>0.01672617718577385</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.003682434326037765</v>
+        <v>0.06392452865839005</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.002702653640881181</v>
+        <v>0.01985891535878181</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.002214429201558232</v>
+        <v>0.02729528024792671</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0006278496002778411</v>
+        <v>0.05832860991358757</v>
       </c>
       <c r="CQ2" t="n">
-        <v>8.514686487615108e-05</v>
+        <v>0.1358741074800491</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0058984593488276</v>
+        <v>0.04409999400377274</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0007334136171266437</v>
+        <v>0.04331258311867714</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.001061626593582332</v>
+        <v>0.03225567191839218</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.002401326550170779</v>
+        <v>0.009730048477649689</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.001932158833369613</v>
+        <v>0.06432253867387772</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.000556808547116816</v>
+        <v>0.0435592383146286</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.001568848500028253</v>
+        <v>0.01245053485035896</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0002462347038090229</v>
+        <v>0.01145287975668907</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.002563287038356066</v>
+        <v>0.02029244601726532</v>
       </c>
       <c r="DA2" t="n">
-        <v>4.452042048797011e-05</v>
+        <v>0.05172766372561455</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0009525650530122221</v>
+        <v>0.03881640732288361</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.001773459138348699</v>
+        <v>0.01924766227602959</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.001182601554319263</v>
+        <v>0.01941749639809132</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.00384852010756731</v>
+        <v>0.08411087840795517</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.004823784343898296</v>
+        <v>0.01371354609727859</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.004050052724778652</v>
+        <v>0.01439879089593887</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.005583471152931452</v>
+        <v>0.002838257700204849</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.001313113141804934</v>
+        <v>0.1275856196880341</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.01065334863960743</v>
+        <v>0.187629371881485</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.005990811157971621</v>
+        <v>0.01672225818037987</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.004474722780287266</v>
+        <v>0.07723185420036316</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.001889537321403623</v>
+        <v>0.0877348780632019</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.002946152351796627</v>
+        <v>0.03703194856643677</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0005949900951236486</v>
+        <v>0.003472937270998955</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.003402723465114832</v>
+        <v>0.01971982792019844</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.001931089791469276</v>
+        <v>0.04907514527440071</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.001894201268441975</v>
+        <v>0.01232560351490974</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.002808501711115241</v>
+        <v>0.1003331691026688</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.001110508223064244</v>
+        <v>0.005570352077484131</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0006431740475818515</v>
+        <v>0.05229188501834869</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.001908736536279321</v>
+        <v>0.03340987116098404</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0008587930933572352</v>
+        <v>0.04873554781079292</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0007862864877097309</v>
+        <v>0.05684682726860046</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.001043010503053665</v>
+        <v>0.07066704332828522</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.001363307004794478</v>
+        <v>0.04408949986100197</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0003456278354860842</v>
+        <v>0.009102235548198223</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.002216428518295288</v>
+        <v>0.02620180323719978</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.001614364446140826</v>
+        <v>0.05021036416292191</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.001677655498497188</v>
+        <v>0.05003555864095688</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.000653356546536088</v>
+        <v>0.003600064665079117</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.00283712986856699</v>
+        <v>0.08716858923435211</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.006057265214622021</v>
+        <v>0.0305892676115036</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0007690259953960776</v>
+        <v>0.03077667579054832</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.001457949401810765</v>
+        <v>0.01579600945115089</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.008104061707854271</v>
+        <v>0.06741391122341156</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.002199655398726463</v>
+        <v>0.09260641038417816</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.00184944667853415</v>
+        <v>0.02457833662629128</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0004106537089683115</v>
+        <v>0.02838608995079994</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.001928760786540806</v>
+        <v>0.01095192134380341</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.004275697749108076</v>
+        <v>0.02906248345971107</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0001381298498017713</v>
+        <v>0.082107774913311</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004573632963001728</v>
+        <v>0.02682101354002953</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.002317736856639385</v>
+        <v>0.03951523080468178</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003867822233587503</v>
+        <v>0.007302477024495602</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.001778295147232711</v>
+        <v>0.01906326040625572</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.001581636839546263</v>
+        <v>0.007649717852473259</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.001464559696614742</v>
+        <v>0.03372672572731972</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.001973393838852644</v>
+        <v>0.03336546570062637</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0014341528294608</v>
+        <v>0.07400400936603546</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.001043439959175885</v>
+        <v>0.04004531353712082</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.001573204761371017</v>
+        <v>0.02265459485352039</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.000362895370926708</v>
+        <v>0.02412065118551254</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.003707932773977518</v>
+        <v>0.01400484889745712</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0002735238231252879</v>
+        <v>0.04293405637145042</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.001070933882147074</v>
+        <v>0.04893834888935089</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.001032881438732147</v>
+        <v>0.003989323042333126</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.002348898211494088</v>
+        <v>0.00615295534953475</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.002233436331152916</v>
+        <v>0.04546952247619629</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0009348072344437242</v>
+        <v>0.03585754334926605</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0002405775157967582</v>
+        <v>0.07261873036623001</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.003243823302909732</v>
+        <v>0.06890660524368286</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.001953924773260951</v>
+        <v>0.006836632266640663</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.00344086904078722</v>
+        <v>0.08750332146883011</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.001724741770885885</v>
+        <v>0.04954145103693008</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.001789042027667165</v>
+        <v>0.04411802068352699</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.001178219215944409</v>
+        <v>0.03489383310079575</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.001602038624696434</v>
+        <v>0.05483264103531837</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.006395143456757069</v>
+        <v>0.06327609717845917</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0003346321464050561</v>
+        <v>0.0153557937592268</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0005929354229010642</v>
+        <v>0.06163592264056206</v>
       </c>
       <c r="FT2" t="n">
-        <v>3.336463123559952e-07</v>
+        <v>0.1563961356878281</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.003337173955515027</v>
+        <v>0.1293284147977829</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.001076714135706425</v>
+        <v>0.02450312487781048</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0009535284480080009</v>
+        <v>0.005774820223450661</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.001921426504850388</v>
+        <v>0.06791559606790543</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.004743706900626421</v>
+        <v>0.03786887973546982</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0003880502772517502</v>
+        <v>0.02467397972941399</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0006758735980838537</v>
+        <v>0.0720047801733017</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.008619828149676323</v>
+        <v>0.0003005352336913347</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0007860762998461723</v>
+        <v>0.06228996068239212</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0001068839628715068</v>
+        <v>0.02725188247859478</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0008556809043511748</v>
+        <v>0.007337957620620728</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0004227410536259413</v>
+        <v>0.0199426282197237</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.002033930970355868</v>
+        <v>0.04061219841241837</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9695137739181519</v>
+        <v>0.01597326062619686</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6108414530754089</v>
+        <v>0.1192263290286064</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2502588331699371</v>
+        <v>0.01087657175958157</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4740305244922638</v>
+        <v>0.06573143601417542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01336195319890976</v>
+        <v>0.006806658115237951</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2504725456237793</v>
+        <v>0.1343320310115814</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7763295769691467</v>
+        <v>0.01846985891461372</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08379709720611572</v>
+        <v>0.04597194120287895</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3279807865619659</v>
+        <v>0.02673769183456898</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7884438037872314</v>
+        <v>0.03289203718304634</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4584224820137024</v>
+        <v>0.07750372588634491</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05890865623950958</v>
+        <v>0.003671904094517231</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4076553881168365</v>
+        <v>0.06439553946256638</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1325940489768982</v>
+        <v>0.0129165593534708</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3436380326747894</v>
+        <v>0.1091495007276535</v>
       </c>
       <c r="P3" t="n">
-        <v>0.6715734601020813</v>
+        <v>0.008467316627502441</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1946806609630585</v>
+        <v>0.03712862730026245</v>
       </c>
       <c r="R3" t="n">
-        <v>0.38623046875</v>
+        <v>0.01831871643662453</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1840727627277374</v>
+        <v>0.00986658688634634</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1872791945934296</v>
+        <v>0.002284097019582987</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1546619981527328</v>
+        <v>0.0007391512044705451</v>
       </c>
       <c r="V3" t="n">
-        <v>0.160375252366066</v>
+        <v>0.005425640381872654</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03519768267869949</v>
+        <v>0.01794205605983734</v>
       </c>
       <c r="X3" t="n">
-        <v>0.04728288948535919</v>
+        <v>0.01155112311244011</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.118100568652153</v>
+        <v>0.009537631645798683</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2632513642311096</v>
+        <v>0.006617922335863113</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.1512463837862015</v>
+        <v>0.001245073974132538</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.07515721768140793</v>
+        <v>0.01335809007287025</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.00846305675804615</v>
+        <v>0.03338361158967018</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.02620233781635761</v>
+        <v>0.007337841205298901</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1880522668361664</v>
+        <v>0.01798973977565765</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.06872929632663727</v>
+        <v>0.007197478320449591</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1433372050523758</v>
+        <v>0.01346013601869345</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.1669243574142456</v>
+        <v>0.004216508474200964</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.2201807498931885</v>
+        <v>0.01775554567575455</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.1934239864349365</v>
+        <v>0.007981406524777412</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.1711881458759308</v>
+        <v>0.007891811430454254</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.01850251853466034</v>
+        <v>0.01174231059849262</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0209217444062233</v>
+        <v>0.01175276190042496</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.1733918488025665</v>
+        <v>0.003549146000295877</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.1688898503780365</v>
+        <v>0.04088872671127319</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.0161018930375576</v>
+        <v>0.02665421366691589</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.06315290182828903</v>
+        <v>0.005031668581068516</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.117262564599514</v>
+        <v>0.008715636096894741</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.1418879479169846</v>
+        <v>0.007151496596634388</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.6126591563224792</v>
+        <v>0.001259590499103069</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.1974814683198929</v>
+        <v>0.05603548511862755</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.03879512101411819</v>
+        <v>0.01663429290056229</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.1516945064067841</v>
+        <v>0.02650869637727737</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.6866958737373352</v>
+        <v>0.01004885230213404</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1101106479763985</v>
+        <v>0.1201284229755402</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.241845577955246</v>
+        <v>0.01897103525698185</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.4639447629451752</v>
+        <v>0.01127333752810955</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.4045634865760803</v>
+        <v>0.02363672852516174</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.2828577160835266</v>
+        <v>0.01143377833068371</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.3867765069007874</v>
+        <v>0.028066610917449</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.1783964186906815</v>
+        <v>0.000784013420343399</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.04581759124994278</v>
+        <v>0.03250623494386673</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.4728107452392578</v>
+        <v>0.03699168935418129</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.1738962531089783</v>
+        <v>0.01331242360174656</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.4547054171562195</v>
+        <v>0.001183012034744024</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.397260457277298</v>
+        <v>0.002759564435109496</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.1801745742559433</v>
+        <v>0.003503839485347271</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.143088161945343</v>
+        <v>0.01719536818563938</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.3818982839584351</v>
+        <v>0.02834736928343773</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.1200107708573341</v>
+        <v>0.01048343256115913</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.283703625202179</v>
+        <v>0.0007090698927640915</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0113115981221199</v>
+        <v>0.007147272117435932</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.02999121882021427</v>
+        <v>0.009258201345801353</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.0005541406571865082</v>
+        <v>0.004245907999575138</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.001773729920387268</v>
+        <v>0.009586194530129433</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.08150750398635864</v>
+        <v>0.007912566885352135</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.4777190983295441</v>
+        <v>0.005486417561769485</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.01904311776161194</v>
+        <v>0.04002903401851654</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.2026973515748978</v>
+        <v>0.004955284297466278</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.3251909613609314</v>
+        <v>0.00100594200193882</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.476614773273468</v>
+        <v>0.02606517449021339</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.09867359697818756</v>
+        <v>0.05811935663223267</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.06593738496303558</v>
+        <v>0.001065236865542829</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.2142691314220428</v>
+        <v>0.00848754309117794</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.09242835640907288</v>
+        <v>0.01009355951100588</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.1823617517948151</v>
+        <v>0.001699871849268675</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.1057163625955582</v>
+        <v>0.02341258525848389</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.06499098986387253</v>
+        <v>0.0005369405262172222</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.2386898100376129</v>
+        <v>0.01477848552167416</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.03162772208452225</v>
+        <v>0.00521452259272337</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.01991966925561428</v>
+        <v>0.02008785307407379</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.1526282876729965</v>
+        <v>0.007321438752114773</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.1761213093996048</v>
+        <v>0.01063703373074532</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.003783635795116425</v>
+        <v>0.00274146138690412</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.2821916043758392</v>
+        <v>0.02329888381063938</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.1344008594751358</v>
+        <v>0.0001019695773720741</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.01229909807443619</v>
+        <v>0.007712764665484428</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.1206640303134918</v>
+        <v>0.02384078316390514</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.5395110249519348</v>
+        <v>0.04759321734309196</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.0665321871638298</v>
+        <v>0.007386214565485716</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.2480898052453995</v>
+        <v>0.003518817480653524</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.4860440492630005</v>
+        <v>0.02031507156789303</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.1520534157752991</v>
+        <v>0.005690068937838078</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.2139552533626556</v>
+        <v>0.001696418737992644</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.07397262006998062</v>
+        <v>0.0176678616553545</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.08998720347881317</v>
+        <v>0.007845913991332054</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.1647803783416748</v>
+        <v>0.01829205080866814</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.0736745223402977</v>
+        <v>0.0006623652298003435</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.01210505329072475</v>
+        <v>0.02774197608232498</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.1159476637840271</v>
+        <v>0.001562111079692841</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.1990087628364563</v>
+        <v>0.01479605492204428</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.02512801066040993</v>
+        <v>0.005676271393895149</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.1321323812007904</v>
+        <v>0.0252744872123003</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.05344237387180328</v>
+        <v>0.04032697528600693</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.3214343786239624</v>
+        <v>0.01495604403316975</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.4294252693653107</v>
+        <v>0.02602645568549633</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.04342124983668327</v>
+        <v>0.01197344064712524</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.4538739919662476</v>
+        <v>0.006388046313077211</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.002631336450576782</v>
+        <v>0.005362591706216335</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.1542418301105499</v>
+        <v>0.0641620010137558</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.1527084112167358</v>
+        <v>0.01091860886663198</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.0003940387396141887</v>
+        <v>0.0103189293295145</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.2645181715488434</v>
+        <v>0.004012535326182842</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.2848424911499023</v>
+        <v>0.006629772484302521</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.09670163691043854</v>
+        <v>0.009304966777563095</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.3172596096992493</v>
+        <v>0.008670808747410774</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.09803291410207748</v>
+        <v>0.008897281251847744</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.1445723623037338</v>
+        <v>0.009363044053316116</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.260305792093277</v>
+        <v>0.004002101719379425</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.1870406121015549</v>
+        <v>0.006474959198385477</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.1314347684383392</v>
+        <v>0.003973867278546095</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.09617155790328979</v>
+        <v>0.008897460997104645</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.004708483815193176</v>
+        <v>0.0077506173402071</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.1664600074291229</v>
+        <v>0.009186690673232079</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.2684999108314514</v>
+        <v>0.01274121459573507</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.1368781626224518</v>
+        <v>0.02117181196808815</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.05609675869345665</v>
+        <v>0.001421207562088966</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.08652111887931824</v>
+        <v>0.00385150290094316</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.1895697116851807</v>
+        <v>0.005867777857929468</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.04586015641689301</v>
+        <v>0.003471310017630458</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.1862977743148804</v>
+        <v>0.006313298363238573</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.04310017079114914</v>
+        <v>0.01331136282533407</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.1865821927785873</v>
+        <v>0.0009031752124428749</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.07512012869119644</v>
+        <v>0.01130940765142441</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.06441965699195862</v>
+        <v>0.008133695460855961</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.04249362275004387</v>
+        <v>0.009709872305393219</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.09357041120529175</v>
+        <v>0.002312285359948874</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.003149634692817926</v>
+        <v>0.005971692036837339</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.01771052181720734</v>
+        <v>0.003172371303662658</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.05658556893467903</v>
+        <v>0.01186656579375267</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.06703757494688034</v>
+        <v>0.02222821488976479</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.07419655472040176</v>
+        <v>0.01299150008708239</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.7290604114532471</v>
+        <v>0.01234028674662113</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.01654807850718498</v>
+        <v>0.01388144120573997</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.2811465859413147</v>
+        <v>0.01448102481663227</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.16230109333992</v>
+        <v>0.01654353365302086</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.1212787628173828</v>
+        <v>0.01654620468616486</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.2193101495504379</v>
+        <v>0.0003754686331376433</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.01075474545359612</v>
+        <v>0.01633841171860695</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.1379330456256866</v>
+        <v>0.0003168587572872639</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.1741961538791656</v>
+        <v>0.01933982223272324</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.05725815147161484</v>
+        <v>0.003143371548503637</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.001397795043885708</v>
+        <v>0.02231099642813206</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.1134285256266594</v>
+        <v>0.005395581014454365</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.2011100053787231</v>
+        <v>0.01038694102317095</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.01014896482229233</v>
+        <v>0.003482565982267261</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.2012859135866165</v>
+        <v>0.006197696086019278</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.2613928318023682</v>
+        <v>0.01589727215468884</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.1100132912397385</v>
+        <v>0.01182234659790993</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.1156406402587891</v>
+        <v>0.0471169576048851</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.1968292146921158</v>
+        <v>0.009131486527621746</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.04225916787981987</v>
+        <v>0.02661224268376827</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.1551579087972641</v>
+        <v>0.009435266256332397</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.2716226577758789</v>
+        <v>0.01213759556412697</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.1282645016908646</v>
+        <v>0.002907988149672747</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.1790228486061096</v>
+        <v>0.0195883996784687</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.02455415204167366</v>
+        <v>0.009487686678767204</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.06726516783237457</v>
+        <v>0.01876481249928474</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.1285358071327209</v>
+        <v>0.0343666784465313</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.3803925216197968</v>
+        <v>0.04455256834626198</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.1986691504716873</v>
+        <v>0.02128646709024906</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.07391327619552612</v>
+        <v>0.004538098350167274</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.3470135927200317</v>
+        <v>0.01888342946767807</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.01134875603020191</v>
+        <v>0.008897462859749794</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.02418530359864235</v>
+        <v>0.005006310530006886</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.4176975190639496</v>
+        <v>0.005193168763071299</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.2493687123060226</v>
+        <v>0.01507905218750238</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.5156441330909729</v>
+        <v>0.02436686679720879</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.1886596232652664</v>
+        <v>0.07698328793048859</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.01808689162135124</v>
+        <v>0.01278604101389647</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.01400464773178101</v>
+        <v>0.01811540126800537</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.002067357301712036</v>
+        <v>0.01009094715118408</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.07518137246370316</v>
+        <v>0.0005147927440702915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.01898412220180035</v>
+        <v>0.007753857411444187</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003981881309300661</v>
+        <v>0.06456597149372101</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04946961998939514</v>
+        <v>0.007068997714668512</v>
       </c>
       <c r="D4" t="n">
-        <v>0.008702851831912994</v>
+        <v>0.02591192722320557</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01815830729901791</v>
+        <v>0.0119650000706315</v>
       </c>
       <c r="F4" t="n">
-        <v>0.009434117935597897</v>
+        <v>0.03835391253232956</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005314057692885399</v>
+        <v>0.004953915718942881</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006566959898918867</v>
+        <v>0.01912180706858635</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005266997031867504</v>
+        <v>0.007178876549005508</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01799933612346649</v>
+        <v>0.01101733930408955</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00383322942070663</v>
+        <v>0.06034954637289047</v>
       </c>
       <c r="L4" t="n">
-        <v>0.04586394131183624</v>
+        <v>0.002318047918379307</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0008024330018088222</v>
+        <v>0.01963204331696033</v>
       </c>
       <c r="N4" t="n">
-        <v>0.005133015103638172</v>
+        <v>0.00588435772806406</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01143461000174284</v>
+        <v>0.03337590768933296</v>
       </c>
       <c r="P4" t="n">
-        <v>0.003178352257236838</v>
+        <v>0.001102714682929218</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01812891103327274</v>
+        <v>0.004341600462794304</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01148177590221167</v>
+        <v>0.007398989517241716</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0003103684284724295</v>
+        <v>0.001659966073930264</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01595252193510532</v>
+        <v>0.006383803673088551</v>
       </c>
       <c r="U4" t="n">
-        <v>0.003483779961243272</v>
+        <v>0.002712959190830588</v>
       </c>
       <c r="V4" t="n">
-        <v>0.002611434552818537</v>
+        <v>0.008684295229613781</v>
       </c>
       <c r="W4" t="n">
-        <v>0.004927234724164009</v>
+        <v>0.005675442516803741</v>
       </c>
       <c r="X4" t="n">
-        <v>0.00196815375238657</v>
+        <v>0.003616258502006531</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.003136034123599529</v>
+        <v>0.002361355349421501</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.009615509770810604</v>
+        <v>0.008461222983896732</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0002211397513747215</v>
+        <v>0.004554076585918665</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.001622818177565932</v>
+        <v>0.001270783133804798</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.00137220649048686</v>
+        <v>0.002042595064267516</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.006478216964751482</v>
+        <v>0.0005342777003534138</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.001628226134926081</v>
+        <v>0.002035137731581926</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.004435297101736069</v>
+        <v>0.001426767557859421</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.004474758636206388</v>
+        <v>0.001537665608339012</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.006202518939971924</v>
+        <v>0.001482749357819557</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.006557918153703213</v>
+        <v>0.003018959891051054</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.01086104940623045</v>
+        <v>0.001386261312291026</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.005878416821360588</v>
+        <v>0.01023957878351212</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.01192685961723328</v>
+        <v>0.006586391013115644</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.008466976694762707</v>
+        <v>0.0005273108836263418</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.008369251154363155</v>
+        <v>0.002890016650781035</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.001836780807934701</v>
+        <v>0.001734272693283856</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.005807014182209969</v>
+        <v>0.009210530668497086</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0004915168392471969</v>
+        <v>0.003441906534135342</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.001399605651386082</v>
+        <v>0.004804295487701893</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0001918462803587317</v>
+        <v>0.008239259943366051</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.007900221273303032</v>
+        <v>0.001638565096072853</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.01196074485778809</v>
+        <v>0.0354093611240387</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.02545567229390144</v>
+        <v>0.005266210064291954</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.007499426137655973</v>
+        <v>0.005164443980902433</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.001863390672951937</v>
+        <v>0.006273670587688684</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.005934388842433691</v>
+        <v>0.01850085891783237</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.0006286313873715699</v>
+        <v>0.009132888168096542</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.003877249546349049</v>
+        <v>0.008669763803482056</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.00601982232183218</v>
+        <v>0.009727814234793186</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.003232703544199467</v>
+        <v>0.004456254653632641</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.0001434520818293095</v>
+        <v>0.01353685278445482</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.01084142457693815</v>
+        <v>0.01521283946931362</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.004789751954376698</v>
+        <v>8.909509051591158e-05</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.01375659182667732</v>
+        <v>0.004293766804039478</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.004712606780230999</v>
+        <v>0.00764347892254591</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.007832047529518604</v>
+        <v>0.00103641499299556</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.001047635916620493</v>
+        <v>0.007600895594805479</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.006455869413912296</v>
+        <v>0.004953298717737198</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.0001747719070408493</v>
+        <v>0.003648941870778799</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.003251963295042515</v>
+        <v>0.009061484597623348</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.009923893958330154</v>
+        <v>0.005125902127474546</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0007310438668355346</v>
+        <v>0.0007418112363666296</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.005037504713982344</v>
+        <v>0.003895638510584831</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.001400750828906894</v>
+        <v>0.001745052519254386</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.009458777494728565</v>
+        <v>0.00643534492701292</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.01079880725592375</v>
+        <v>0.004223193041980267</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.00322401593439281</v>
+        <v>0.006076836958527565</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.007458368316292763</v>
+        <v>0.0006236627232283354</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.001072911778464913</v>
+        <v>0.02139545418322086</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.01480947807431221</v>
+        <v>0.007405050564557314</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.002511272439733148</v>
+        <v>0.001831521280109882</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.002219212707132101</v>
+        <v>0.003860750701278448</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.007719702553004026</v>
+        <v>0.008758878335356712</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.004325810354202986</v>
+        <v>0.002158742863684893</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.001167571870610118</v>
+        <v>0.003087135730311275</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.00116224423982203</v>
+        <v>0.00420304061844945</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.003798504360020161</v>
+        <v>0.001413146266713738</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.006375045515596867</v>
+        <v>0.01082334760576487</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.01001757942140102</v>
+        <v>0.004626153036952019</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.00134544656611979</v>
+        <v>0.004069133196026087</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.002710261149331927</v>
+        <v>0.002953908639028668</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.003388983896002173</v>
+        <v>0.004073872696608305</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.0002727852261159569</v>
+        <v>0.003835247363895178</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.003617804031819105</v>
+        <v>0.003503481391817331</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.001567296450957656</v>
+        <v>0.00492109265178442</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.001032649073749781</v>
+        <v>0.01395374070852995</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.008295617066323757</v>
+        <v>0.002933094277977943</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0001487168483436108</v>
+        <v>0.0008635742124170065</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.001076958258636296</v>
+        <v>0.0178051833063364</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.00400778790935874</v>
+        <v>0.007104138378053904</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.0002276597078889608</v>
+        <v>0.01674219407141209</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.005856803152710199</v>
+        <v>0.01248999871313572</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.005287640262395144</v>
+        <v>0.009332317858934402</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.001183824730105698</v>
+        <v>0.00285971537232399</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.003907778300344944</v>
+        <v>0.001394433784298599</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.006936743389815092</v>
+        <v>0.0104504032060504</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.01068451255559921</v>
+        <v>0.004415910691022873</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.0001941065129358321</v>
+        <v>0.006889781914651394</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.006696101278066635</v>
+        <v>0.002180944895371795</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.003447430208325386</v>
+        <v>0.003710493911057711</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.001375124556943774</v>
+        <v>0.004052304197102785</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.002220493508502841</v>
+        <v>0.006514918524771929</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.00120193138718605</v>
+        <v>0.00414577592164278</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.0004633546341210604</v>
+        <v>0.006174941547214985</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.01185334660112858</v>
+        <v>0.01096299476921558</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.002014123369008303</v>
+        <v>0.004130481742322445</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.004087669774889946</v>
+        <v>0.0129368482157588</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.002043638378381729</v>
+        <v>0.02230158448219299</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.002999713877215981</v>
+        <v>0.01217122562229633</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.002332899253815413</v>
+        <v>0.005670794285833836</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.00316290813498199</v>
+        <v>0.008919057436287403</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.001743122120387852</v>
+        <v>0.01560742594301701</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.0004016675520688295</v>
+        <v>0.002948121633380651</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.007788138464093208</v>
+        <v>0.00653162132948637</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.003780660917982459</v>
+        <v>0.003035357221961021</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.0004919804632663727</v>
+        <v>0.003401614492759109</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.0002000592357944697</v>
+        <v>0.002526151947677135</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.008450764231383801</v>
+        <v>0.004364714492112398</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.001405010581947863</v>
+        <v>0.004089398309588432</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.0007755830883979797</v>
+        <v>0.007529404945671558</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.002032103016972542</v>
+        <v>0.0006654374301433563</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.002696817740797997</v>
+        <v>0.0007393492851406336</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.004044253844767809</v>
+        <v>0.006170616950839758</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.00315640983171761</v>
+        <v>0.005741504486650229</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.001843709265813231</v>
+        <v>0.006608095020055771</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.0053591039031744</v>
+        <v>0.004316294565796852</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.008169615641236305</v>
+        <v>0.004991922061890364</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.005433857440948486</v>
+        <v>0.003217054530978203</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.005154797341674566</v>
+        <v>0.003479782957583666</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.00126189854927361</v>
+        <v>0.01058617047965527</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.007737700361758471</v>
+        <v>0.007549950387328863</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.00443709921091795</v>
+        <v>0.01321285218000412</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.01043802313506603</v>
+        <v>0.005225914064794779</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.002154126996174455</v>
+        <v>0.002884783316403627</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.002235414925962687</v>
+        <v>0.002901303581893444</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.01024773344397545</v>
+        <v>0.0007162997499108315</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.001174894860014319</v>
+        <v>0.004821863491088152</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.009232395328581333</v>
+        <v>0.002051113173365593</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.00573321059346199</v>
+        <v>0.001758971251547337</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.001728179049678147</v>
+        <v>0.00147559423930943</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.003356326371431351</v>
+        <v>0.005237163975834846</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.001872522523626685</v>
+        <v>0.005590524058789015</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.0007075630710460246</v>
+        <v>0.008230580948293209</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.001060750568285584</v>
+        <v>0.008563738316297531</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.004361118655651808</v>
+        <v>0.002996424678713083</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.002771303057670593</v>
+        <v>0.01144470367580652</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.0001943552633747458</v>
+        <v>0.01433752477169037</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.004719039890915155</v>
+        <v>0.001566444989293814</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.005012487061321735</v>
+        <v>0.002437534043565392</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.004889491479843855</v>
+        <v>0.009789523668587208</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.01052581332623959</v>
+        <v>0.003718142164871097</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.0001800210739020258</v>
+        <v>0.002743805292993784</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.006041254382580519</v>
+        <v>0.00186608184594661</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.00147133250720799</v>
+        <v>0.003308906685560942</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.0007652203203178942</v>
+        <v>0.006333733908832073</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.004168801475316286</v>
+        <v>0.00560680078342557</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.001829486689530313</v>
+        <v>0.005941528826951981</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.003195810364559293</v>
+        <v>0.002641093218699098</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.004416340030729771</v>
+        <v>0.002676256699487567</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.0103539377450943</v>
+        <v>0.007337004877626896</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.008054596371948719</v>
+        <v>0.008812256157398224</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.004603439010679722</v>
+        <v>0.0005703432252630591</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.00346077885478735</v>
+        <v>0.004557269625365734</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.004955749027431011</v>
+        <v>0.003064330900087953</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.001401812303811312</v>
+        <v>0.005006712861359119</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.005766022484749556</v>
+        <v>0.003754568286240101</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.008203564211726189</v>
+        <v>0.007686116732656956</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.02153869345784187</v>
+        <v>0.002206563949584961</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.01084140688180923</v>
+        <v>0.01060929149389267</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.007007194682955742</v>
+        <v>0.002112051704898477</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0008440560195595026</v>
+        <v>0.0006446994957514107</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.008578573353588581</v>
+        <v>0.008028661832213402</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.002369496505707502</v>
+        <v>0.003808790352195501</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.00412174966186285</v>
+        <v>0.002554100938141346</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.002434863010421395</v>
+        <v>0.002251819474622607</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.007120123133063316</v>
+        <v>0.01084558665752411</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.00160695449449122</v>
+        <v>0.005457424558699131</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.0007398435263894498</v>
+        <v>0.004088611342012882</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.006225666962563992</v>
+        <v>0.003121792571619153</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.0003829683701042086</v>
+        <v>0.004492179490625858</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.007567579858005047</v>
+        <v>0.004604684188961983</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.0007046961109153926</v>
+        <v>0.01210587285459042</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.0005912415217608213</v>
+        <v>0.0002151026856154203</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.0009808987379074097</v>
+        <v>0.005710121244192123</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.001828246051445603</v>
+        <v>0.0009210354182869196</v>
       </c>
       <c r="B5" t="n">
-        <v>0.000327355635818094</v>
+        <v>0.008144271560013294</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001409144839271903</v>
+        <v>0.0004570763267111033</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0007835971191525459</v>
+        <v>0.001805705134756863</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0007160165114328265</v>
+        <v>0.002749538980424404</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002589590731076896</v>
+        <v>0.005411015823483467</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0009350727777928114</v>
+        <v>0.000748204649426043</v>
       </c>
       <c r="H5" t="n">
-        <v>3.049572114832699e-05</v>
+        <v>0.0008939937688410282</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004073170421179384</v>
+        <v>0.000262877787463367</v>
       </c>
       <c r="J5" t="n">
-        <v>0.001687631825916469</v>
+        <v>0.001025618286803365</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0003093956620432436</v>
+        <v>0.008066900074481964</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001434662146493793</v>
+        <v>0.000179141090484336</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0002820771769620478</v>
+        <v>1.372149563394487e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001132344361394644</v>
+        <v>0.0009598917094990611</v>
       </c>
       <c r="O5" t="n">
-        <v>1.201518171001226e-05</v>
+        <v>0.003756266552954912</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0008101380080915987</v>
+        <v>0.0005736536113545299</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0003735234786290675</v>
+        <v>0.000433136650826782</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0008792168810032308</v>
+        <v>0.001154608675278723</v>
       </c>
       <c r="S5" t="n">
-        <v>1.356288248643978e-05</v>
+        <v>0.0002040743711404502</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0005536246462725103</v>
+        <v>0.0008132486836984754</v>
       </c>
       <c r="U5" t="n">
-        <v>8.665787390782498e-06</v>
+        <v>0.0006713622715324163</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0001718934800010175</v>
+        <v>0.0002033461787505075</v>
       </c>
       <c r="W5" t="n">
-        <v>7.036382157821208e-05</v>
+        <v>0.0003338832757435739</v>
       </c>
       <c r="X5" t="n">
-        <v>0.000192342180525884</v>
+        <v>0.0002463283308316022</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0001989055162994191</v>
+        <v>0.0008061698172241449</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0005667965742759407</v>
+        <v>0.001159945852123201</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0001298858260270208</v>
+        <v>0.001104323426261544</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001516003248980269</v>
+        <v>0.0003901902236975729</v>
       </c>
       <c r="AC5" t="n">
-        <v>2.211559331044555e-05</v>
+        <v>0.0008085765293799341</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0001658555120229721</v>
+        <v>0.0004481207579374313</v>
       </c>
       <c r="AE5" t="n">
-        <v>5.535144737223163e-05</v>
+        <v>0.000790164340287447</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.248278754763305e-05</v>
+        <v>0.001347741927020252</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0001702900335658342</v>
+        <v>0.0006581292254850268</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.0001916179608087987</v>
+        <v>0.0003347487945575267</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.000632015464361757</v>
+        <v>0.001643403549678624</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.000619922298938036</v>
+        <v>0.0001485258544562384</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0002956822863779962</v>
+        <v>0.002249659039080143</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0001415092701790854</v>
+        <v>0.0007096671615727246</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0001519778743386269</v>
+        <v>0.0003572350833564997</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0004704055027104914</v>
+        <v>0.0003214317257516086</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0002085781452478841</v>
+        <v>0.0007308619096875191</v>
       </c>
       <c r="AP5" t="n">
-        <v>7.678668225707952e-06</v>
+        <v>0.000534597085788846</v>
       </c>
       <c r="AQ5" t="n">
-        <v>6.015740655129775e-05</v>
+        <v>0.0001833552232710645</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.897166839626152e-05</v>
+        <v>0.0009740923997014761</v>
       </c>
       <c r="AS5" t="n">
-        <v>5.086376768304035e-05</v>
+        <v>3.704341725097038e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0007685382151976228</v>
+        <v>0.0003981432237196714</v>
       </c>
       <c r="AU5" t="n">
-        <v>3.048598591703922e-05</v>
+        <v>0.005083091091364622</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0005886512226425111</v>
+        <v>0.001013159519061446</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0004524098476395011</v>
+        <v>0.001951833837665617</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0005517715471796691</v>
+        <v>0.0005958880065008998</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0004586668219417334</v>
+        <v>0.00367978191934526</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.690549445105717e-05</v>
+        <v>0.001180892111733556</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0001984486298169941</v>
+        <v>0.001053601736202836</v>
       </c>
       <c r="BB5" t="n">
-        <v>4.874345904681832e-06</v>
+        <v>0.0002627726644277573</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.000492776685860008</v>
+        <v>0.0005465745343826711</v>
       </c>
       <c r="BD5" t="n">
-        <v>3.334274515509605e-05</v>
+        <v>0.002520151436328888</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.0004912868607789278</v>
+        <v>0.001265445374883711</v>
       </c>
       <c r="BF5" t="n">
-        <v>8.444866398349404e-05</v>
+        <v>0.000837818079162389</v>
       </c>
       <c r="BG5" t="n">
-        <v>2.672360278666019e-05</v>
+        <v>0.002443644450977445</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.0001360662572551519</v>
+        <v>0.0009018752607516944</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.0004583739791996777</v>
+        <v>0.0006459861760959029</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.0003232674789614975</v>
+        <v>0.0001607284648343921</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0002045315923169255</v>
+        <v>0.000745236175134778</v>
       </c>
       <c r="BL5" t="n">
-        <v>8.24204325908795e-05</v>
+        <v>0.0009842657018452883</v>
       </c>
       <c r="BM5" t="n">
-        <v>6.618277984671295e-05</v>
+        <v>0.002165340352803469</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.0003238514764234424</v>
+        <v>0.0001064998941728845</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0001196666926261969</v>
+        <v>0.0003427854389883578</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0005031345062889159</v>
+        <v>0.001377993263304234</v>
       </c>
       <c r="BQ5" t="n">
-        <v>9.676192712504417e-05</v>
+        <v>0.0004168306768406183</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.000155959787662141</v>
+        <v>0.0006510951789095998</v>
       </c>
       <c r="BS5" t="n">
-        <v>4.571929457597435e-05</v>
+        <v>0.0004693792725447565</v>
       </c>
       <c r="BT5" t="n">
-        <v>2.894084173021838e-05</v>
+        <v>0.0004378045559860766</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0005775497411377728</v>
+        <v>0.0003323324781376868</v>
       </c>
       <c r="BV5" t="n">
-        <v>7.003610517131165e-05</v>
+        <v>0.002482744865119457</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0003890893422067165</v>
+        <v>0.0001421968918293715</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0006938042934052646</v>
+        <v>0.0001446295063942671</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0004199123941361904</v>
+        <v>0.0004072478041052818</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.0001957220956683159</v>
+        <v>0.001264384132809937</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0001319742150371894</v>
+        <v>0.0003775603254325688</v>
       </c>
       <c r="CB5" t="n">
-        <v>2.810268415487371e-05</v>
+        <v>0.0005753366858698428</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.000242434922256507</v>
+        <v>0.0001485486864112318</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0003248821594752371</v>
+        <v>0.0003540839825291187</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.0003304405545350164</v>
+        <v>0.001167292008176446</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0002812481834553182</v>
+        <v>0.0001967920397873968</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.0001208430840051733</v>
+        <v>0.0001279547868762165</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0001538860815344378</v>
+        <v>3.012424713233486e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>9.230878640664741e-05</v>
+        <v>0.0008558568079024553</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0001816490257624537</v>
+        <v>0.0002702312194742262</v>
       </c>
       <c r="CK5" t="n">
-        <v>1.170338873635046e-05</v>
+        <v>0.0003981684858445078</v>
       </c>
       <c r="CL5" t="n">
-        <v>1.530914960312657e-05</v>
+        <v>7.701246431679465e-06</v>
       </c>
       <c r="CM5" t="n">
-        <v>6.472932727774605e-05</v>
+        <v>0.00255183270201087</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0002460158139001578</v>
+        <v>0.0006715792696923018</v>
       </c>
       <c r="CO5" t="n">
-        <v>6.295037019299343e-05</v>
+        <v>0.0002910135372076184</v>
       </c>
       <c r="CP5" t="n">
-        <v>1.925047399709001e-05</v>
+        <v>0.001183249056339264</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0003602569340728223</v>
+        <v>0.0006566887022927403</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.000132282599224709</v>
+        <v>0.001080619636923075</v>
       </c>
       <c r="CS5" t="n">
-        <v>9.964380296878517e-05</v>
+        <v>0.0009802135173231363</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.0002470595354679972</v>
+        <v>0.0006449413485825062</v>
       </c>
       <c r="CU5" t="n">
-        <v>6.371286872308701e-05</v>
+        <v>0.0004991037421859801</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.0002578782441560179</v>
+        <v>0.0003363955183885992</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.0002705357619561255</v>
+        <v>0.00104645814280957</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0003044553159270436</v>
+        <v>6.914287223480642e-05</v>
       </c>
       <c r="CY5" t="n">
-        <v>8.485208672937006e-05</v>
+        <v>0.0002469049941282719</v>
       </c>
       <c r="CZ5" t="n">
-        <v>3.080379974562675e-05</v>
+        <v>6.049539661034942e-05</v>
       </c>
       <c r="DA5" t="n">
-        <v>6.876449333503842e-05</v>
+        <v>0.0008570859208703041</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.000164090990438126</v>
+        <v>0.0002546593605075032</v>
       </c>
       <c r="DC5" t="n">
-        <v>8.65783731569536e-05</v>
+        <v>0.0004507899866439402</v>
       </c>
       <c r="DD5" t="n">
-        <v>2.775605753413402e-05</v>
+        <v>0.0001930571452248842</v>
       </c>
       <c r="DE5" t="n">
-        <v>3.133445352432318e-05</v>
+        <v>0.001632809988223016</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.0008433618349954486</v>
+        <v>0.0004715061804745346</v>
       </c>
       <c r="DG5" t="n">
-        <v>4.468642873689532e-05</v>
+        <v>0.0002600600419100374</v>
       </c>
       <c r="DH5" t="n">
-        <v>2.997004776261747e-05</v>
+        <v>0.001501569524407387</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0002770604332908988</v>
+        <v>0.0002021308027906343</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.0001415169390384108</v>
+        <v>0.001373633043840528</v>
       </c>
       <c r="DK5" t="n">
-        <v>8.900241664377972e-05</v>
+        <v>9.743234841153026e-08</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.0001068459387170151</v>
+        <v>0.001259628916159272</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0002416112984064966</v>
+        <v>0.001335187582299113</v>
       </c>
       <c r="DN5" t="n">
-        <v>8.892721962183714e-05</v>
+        <v>0.0001359440211672336</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.000256063969573006</v>
+        <v>0.0003839803393930197</v>
       </c>
       <c r="DP5" t="n">
-        <v>9.328452870249748e-05</v>
+        <v>0.000814535073004663</v>
       </c>
       <c r="DQ5" t="n">
-        <v>6.08066693530418e-06</v>
+        <v>0.002663666848093271</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0001696601684670895</v>
+        <v>0.001313087297603488</v>
       </c>
       <c r="DS5" t="n">
-        <v>5.043069540988654e-05</v>
+        <v>0.0001725225592963398</v>
       </c>
       <c r="DT5" t="n">
-        <v>4.809309393749572e-05</v>
+        <v>0.000198229230591096</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0002379679935984313</v>
+        <v>0.0002566143521107733</v>
       </c>
       <c r="DV5" t="n">
-        <v>8.802686352282763e-05</v>
+        <v>0.0005171812372282147</v>
       </c>
       <c r="DW5" t="n">
-        <v>8.598171552876011e-05</v>
+        <v>5.310487176757306e-05</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0001838541065808386</v>
+        <v>0.0008582576410844922</v>
       </c>
       <c r="DY5" t="n">
-        <v>2.944155494333245e-05</v>
+        <v>0.0001161369727924466</v>
       </c>
       <c r="DZ5" t="n">
-        <v>4.491241270443425e-06</v>
+        <v>0.0002302869543200359</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0002278126339660957</v>
+        <v>0.001233509392477572</v>
       </c>
       <c r="EB5" t="n">
-        <v>6.720167584717274e-05</v>
+        <v>0.001151537406258285</v>
       </c>
       <c r="EC5" t="n">
-        <v>9.844399028224871e-05</v>
+        <v>0.0002488994505256414</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.0003467710339464247</v>
+        <v>0.0002889263560064137</v>
       </c>
       <c r="EE5" t="n">
-        <v>3.175676829414442e-05</v>
+        <v>2.842633693944663e-05</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0005694953142665327</v>
+        <v>0.001264697406440973</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.0003078922454733402</v>
+        <v>0.001658338005654514</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.0002595666155684739</v>
+        <v>0.0001882962824311107</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.0001686130854068324</v>
+        <v>0.0005739914486184716</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0002110383938997984</v>
+        <v>0.0001690010394668207</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.0001057587069226429</v>
+        <v>0.0005958735710009933</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.0001499387144576758</v>
+        <v>0.0003061549505218863</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0002150751097360626</v>
+        <v>0.0004501124785747379</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.0001551555760670453</v>
+        <v>0.000346723390975967</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0001009710249491036</v>
+        <v>0.000355868338374421</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.000382603146135807</v>
+        <v>0.0002928676549345255</v>
       </c>
       <c r="EQ5" t="n">
-        <v>4.636726953322068e-05</v>
+        <v>0.001050450140610337</v>
       </c>
       <c r="ER5" t="n">
-        <v>2.894400677178055e-05</v>
+        <v>0.0003884902398567647</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0001728233764879405</v>
+        <v>0.0003277328796684742</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.0001269642234547064</v>
+        <v>0.0003662628878373653</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.000150186286191456</v>
+        <v>7.843135972507298e-05</v>
       </c>
       <c r="EV5" t="n">
-        <v>8.186112972907722e-05</v>
+        <v>0.002778070047497749</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.0001350624952465296</v>
+        <v>0.001256402698345482</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.0002839412773028016</v>
+        <v>0.0005436738720163703</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0002342231018701568</v>
+        <v>0.0009900646982714534</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.000301844731438905</v>
+        <v>0.0002444629790261388</v>
       </c>
       <c r="FA5" t="n">
-        <v>8.998025441542268e-05</v>
+        <v>0.0002059210673905909</v>
       </c>
       <c r="FB5" t="n">
-        <v>3.702626054291613e-05</v>
+        <v>0.0004942386294715106</v>
       </c>
       <c r="FC5" t="n">
-        <v>2.638951809785794e-05</v>
+        <v>0.0008627443457953632</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0001754050026647747</v>
+        <v>0.0001135513448389247</v>
       </c>
       <c r="FE5" t="n">
-        <v>4.240995986037888e-05</v>
+        <v>0.0001590434549143538</v>
       </c>
       <c r="FF5" t="n">
-        <v>6.339694664347917e-05</v>
+        <v>8.92682874109596e-05</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0002145327307516709</v>
+        <v>8.33957819850184e-05</v>
       </c>
       <c r="FH5" t="n">
-        <v>4.215000808471814e-05</v>
+        <v>9.885837062029168e-05</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0003387625911273062</v>
+        <v>4.790886305272579e-05</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.000209364399779588</v>
+        <v>0.002238084562122822</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0002303766668774188</v>
+        <v>0.0005126415635459125</v>
       </c>
       <c r="FL5" t="n">
-        <v>9.308553853770718e-05</v>
+        <v>0.0008931225165724754</v>
       </c>
       <c r="FM5" t="n">
-        <v>5.689460158464499e-05</v>
+        <v>0.0006780716357752681</v>
       </c>
       <c r="FN5" t="n">
-        <v>7.830200775060803e-05</v>
+        <v>0.0008817151538096368</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.0001737826969474554</v>
+        <v>0.001317694899626076</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.0002205054770456627</v>
+        <v>0.001853187219239771</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.0008702073246240616</v>
+        <v>0.0007039314950816333</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0002071560738841072</v>
+        <v>0.001124956761486828</v>
       </c>
       <c r="FS5" t="n">
-        <v>3.419173299334943e-05</v>
+        <v>0.0005584921455010772</v>
       </c>
       <c r="FT5" t="n">
-        <v>2.290025076945312e-05</v>
+        <v>0.001303266966715455</v>
       </c>
       <c r="FU5" t="n">
-        <v>7.803268090356141e-06</v>
+        <v>0.001111521618440747</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.0001866243983386084</v>
+        <v>0.0001459035993320867</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.0002671167021617293</v>
+        <v>0.0009338118834421039</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.0001304429169977084</v>
+        <v>0.0005038903909735382</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0003000111319124699</v>
+        <v>0.001432651886716485</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.0002413322654319927</v>
+        <v>0.001031813328154385</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.0001086293195839971</v>
+        <v>0.0003561936318874359</v>
       </c>
       <c r="GB5" t="n">
-        <v>1.142376277130097e-05</v>
+        <v>0.000401912082452327</v>
       </c>
       <c r="GC5" t="n">
-        <v>5.861042882315814e-05</v>
+        <v>0.0005214640405029058</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.0001000321863102727</v>
+        <v>0.0004423074133228511</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0003076629946008325</v>
+        <v>0.000208672572625801</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.0001301326119573787</v>
+        <v>0.0001535575138404965</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0001436423044651747</v>
+        <v>0.0002089977060677484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.0002036841033259407</v>
+        <v>3.486855462142557e-07</v>
       </c>
       <c r="B6" t="n">
-        <v>8.800605428405106e-05</v>
+        <v>3.37102210323792e-06</v>
       </c>
       <c r="C6" t="n">
-        <v>2.760658935585525e-05</v>
+        <v>4.383126679385896e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0001172517368104309</v>
+        <v>1.800467316570575e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>9.316579962614924e-05</v>
+        <v>1.096239770959073e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>5.301878991303965e-05</v>
+        <v>7.305999361051363e-07</v>
       </c>
       <c r="G6" t="n">
-        <v>8.825706754578277e-05</v>
+        <v>1.425886750894279e-07</v>
       </c>
       <c r="H6" t="n">
-        <v>2.857972140191123e-05</v>
+        <v>8.040737498049566e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>3.477793507045135e-05</v>
+        <v>1.168558156905419e-07</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001871794374892488</v>
+        <v>7.129963250918081e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>5.153384336153977e-05</v>
+        <v>2.699019432839123e-06</v>
       </c>
       <c r="L6" t="n">
-        <v>3.989323158748448e-05</v>
+        <v>1.536121203571383e-07</v>
       </c>
       <c r="M6" t="n">
-        <v>9.603476064512506e-05</v>
+        <v>1.395177719132334e-06</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0001211776834679767</v>
+        <v>1.07572088836605e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>9.787826456886251e-06</v>
+        <v>1.098164943869051e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>8.422724204137921e-05</v>
+        <v>2.860170980056864e-07</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.842556674906518e-06</v>
+        <v>5.966700769022282e-07</v>
       </c>
       <c r="R6" t="n">
-        <v>7.64758515288122e-05</v>
+        <v>1.508006306494281e-07</v>
       </c>
       <c r="S6" t="n">
-        <v>2.732875145738944e-06</v>
+        <v>2.21860148030828e-08</v>
       </c>
       <c r="T6" t="n">
-        <v>1.274719397770241e-05</v>
+        <v>5.085520342618111e-07</v>
       </c>
       <c r="U6" t="n">
-        <v>3.025778141818591e-06</v>
+        <v>9.131099432124756e-08</v>
       </c>
       <c r="V6" t="n">
-        <v>1.319830880674999e-05</v>
+        <v>2.471902007528115e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.182414735012571e-06</v>
+        <v>3.844947968900669e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>6.166883395053446e-07</v>
+        <v>3.120880194273923e-07</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.135335307684727e-05</v>
+        <v>4.479652773170528e-07</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.587903847801499e-05</v>
+        <v>3.526058662828291e-07</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.443371709494386e-06</v>
+        <v>3.954508542847179e-07</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.673965743975714e-05</v>
+        <v>1.725950085074146e-07</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.551422064949293e-05</v>
+        <v>2.068702684709933e-07</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.21297562145628e-05</v>
+        <v>1.889001310928506e-08</v>
       </c>
       <c r="AE6" t="n">
-        <v>8.328041985805612e-06</v>
+        <v>2.177216771315216e-07</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.528461820678785e-05</v>
+        <v>1.269910399059881e-07</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.111024514306337e-05</v>
+        <v>2.913726149245122e-08</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.321254967479035e-05</v>
+        <v>8.1249062588995e-08</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.914095188723877e-05</v>
+        <v>9.282912571961788e-08</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.054731157841161e-05</v>
+        <v>5.075143860722164e-08</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.398175613256171e-05</v>
+        <v>3.628021545409865e-07</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.730844996927772e-05</v>
+        <v>2.394475302480714e-07</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.050779701472493e-05</v>
+        <v>1.15759902996615e-07</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.570931585272774e-05</v>
+        <v>1.024411204753051e-07</v>
       </c>
       <c r="AO6" t="n">
-        <v>2.496322304068599e-05</v>
+        <v>1.562897580242861e-07</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.939607864187565e-05</v>
+        <v>2.115988451123485e-07</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9.510240488452837e-06</v>
+        <v>1.966137688214076e-07</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.385632094752509e-05</v>
+        <v>1.323638088024381e-09</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.990082975884434e-06</v>
+        <v>2.446553253321326e-07</v>
       </c>
       <c r="AT6" t="n">
-        <v>9.188174590235576e-05</v>
+        <v>1.039165908878203e-08</v>
       </c>
       <c r="AU6" t="n">
-        <v>1.630468250368722e-05</v>
+        <v>2.097658125421731e-06</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.095015795726795e-05</v>
+        <v>1.382808250127709e-07</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.678964847291354e-05</v>
+        <v>4.123452015392104e-07</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.08027483697515e-05</v>
+        <v>1.978816754899526e-07</v>
       </c>
       <c r="AY6" t="n">
-        <v>2.265707007609308e-05</v>
+        <v>1.552070472143896e-08</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.834426620916929e-05</v>
+        <v>1.146400236962108e-07</v>
       </c>
       <c r="BA6" t="n">
-        <v>9.964770470105577e-06</v>
+        <v>3.039211833311128e-07</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.044731652655173e-05</v>
+        <v>2.985597973292897e-07</v>
       </c>
       <c r="BC6" t="n">
-        <v>5.878503725398332e-05</v>
+        <v>2.678528403521341e-07</v>
       </c>
       <c r="BD6" t="n">
-        <v>1.195564254885539e-05</v>
+        <v>5.650500725096208e-07</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.272822009923402e-05</v>
+        <v>9.041157795763866e-07</v>
       </c>
       <c r="BF6" t="n">
-        <v>3.300584012322361e-06</v>
+        <v>4.785530336448574e-07</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.354969728912693e-05</v>
+        <v>9.288938258578128e-07</v>
       </c>
       <c r="BH6" t="n">
-        <v>2.58890213444829e-06</v>
+        <v>4.640301654035284e-07</v>
       </c>
       <c r="BI6" t="n">
-        <v>4.461723074200563e-05</v>
+        <v>7.66524976825167e-08</v>
       </c>
       <c r="BJ6" t="n">
-        <v>6.565797229995951e-05</v>
+        <v>4.841481882067455e-07</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.393485581502318e-05</v>
+        <v>4.790380359054325e-08</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.446758687961847e-05</v>
+        <v>3.410564488603995e-07</v>
       </c>
       <c r="BM6" t="n">
-        <v>2.522956128814258e-05</v>
+        <v>5.737390438298462e-07</v>
       </c>
       <c r="BN6" t="n">
-        <v>9.223282177117653e-06</v>
+        <v>4.043017156618589e-07</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.496287040936295e-05</v>
+        <v>2.601579396355191e-09</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.612227424629964e-05</v>
+        <v>2.665173042259994e-07</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3.821505742962472e-07</v>
+        <v>2.267776153530576e-07</v>
       </c>
       <c r="BR6" t="n">
-        <v>2.178459544666111e-05</v>
+        <v>8.586445687797095e-08</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.092282673198497e-07</v>
+        <v>1.256426855889003e-07</v>
       </c>
       <c r="BT6" t="n">
-        <v>7.566534804936964e-06</v>
+        <v>1.424093909463409e-07</v>
       </c>
       <c r="BU6" t="n">
-        <v>7.655394438188523e-05</v>
+        <v>1.523650183798964e-08</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.053503365255892e-05</v>
+        <v>1.077312845154665e-06</v>
       </c>
       <c r="BW6" t="n">
-        <v>1.185570090456167e-05</v>
+        <v>5.273441843200999e-07</v>
       </c>
       <c r="BX6" t="n">
-        <v>7.308332715183496e-05</v>
+        <v>2.092671422815329e-07</v>
       </c>
       <c r="BY6" t="n">
-        <v>5.12979386257939e-05</v>
+        <v>1.02492840881041e-08</v>
       </c>
       <c r="BZ6" t="n">
-        <v>6.413935807358939e-06</v>
+        <v>1.834625464880446e-07</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.34815345518291e-05</v>
+        <v>2.973126242977742e-07</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.846727627707878e-06</v>
+        <v>4.790385688124843e-08</v>
       </c>
       <c r="CC6" t="n">
-        <v>1.214031635754509e-05</v>
+        <v>2.428860170766711e-07</v>
       </c>
       <c r="CD6" t="n">
-        <v>3.72213835362345e-05</v>
+        <v>1.363624235750649e-08</v>
       </c>
       <c r="CE6" t="n">
-        <v>4.289606658858247e-05</v>
+        <v>5.860130727342039e-07</v>
       </c>
       <c r="CF6" t="n">
-        <v>8.502563105139416e-06</v>
+        <v>2.94285371182923e-07</v>
       </c>
       <c r="CG6" t="n">
-        <v>3.270972956670448e-05</v>
+        <v>1.35297867132067e-07</v>
       </c>
       <c r="CH6" t="n">
-        <v>2.037440390267875e-05</v>
+        <v>7.956799663588754e-08</v>
       </c>
       <c r="CI6" t="n">
-        <v>4.772091415361501e-06</v>
+        <v>2.256850422099888e-07</v>
       </c>
       <c r="CJ6" t="n">
-        <v>2.255175604659598e-05</v>
+        <v>1.995044840441551e-08</v>
       </c>
       <c r="CK6" t="n">
-        <v>7.917155926406849e-07</v>
+        <v>2.573024104890465e-08</v>
       </c>
       <c r="CL6" t="n">
-        <v>2.262909674755065e-06</v>
+        <v>2.527613958136499e-07</v>
       </c>
       <c r="CM6" t="n">
-        <v>9.122030860453378e-06</v>
+        <v>3.544433866409236e-07</v>
       </c>
       <c r="CN6" t="n">
-        <v>1.017282284010435e-05</v>
+        <v>1.749220501778836e-07</v>
       </c>
       <c r="CO6" t="n">
-        <v>8.342658475157805e-07</v>
+        <v>1.20833135497378e-07</v>
       </c>
       <c r="CP6" t="n">
-        <v>7.969305443111807e-06</v>
+        <v>5.718293891732174e-07</v>
       </c>
       <c r="CQ6" t="n">
-        <v>2.455267713230569e-05</v>
+        <v>5.444723001346574e-07</v>
       </c>
       <c r="CR6" t="n">
-        <v>1.216361761180451e-05</v>
+        <v>2.159149801173044e-07</v>
       </c>
       <c r="CS6" t="n">
-        <v>7.435966836055741e-06</v>
+        <v>4.390540766507911e-07</v>
       </c>
       <c r="CT6" t="n">
-        <v>3.642412411863916e-05</v>
+        <v>1.282749479969425e-07</v>
       </c>
       <c r="CU6" t="n">
-        <v>4.612938937498257e-07</v>
+        <v>1.846686643602879e-07</v>
       </c>
       <c r="CV6" t="n">
-        <v>2.929595575551502e-05</v>
+        <v>5.130078584159037e-09</v>
       </c>
       <c r="CW6" t="n">
-        <v>4.368846202851273e-05</v>
+        <v>5.343172801985929e-07</v>
       </c>
       <c r="CX6" t="n">
-        <v>1.494887328590266e-05</v>
+        <v>3.297443527117139e-07</v>
       </c>
       <c r="CY6" t="n">
-        <v>2.32560487347655e-05</v>
+        <v>3.031107382867049e-07</v>
       </c>
       <c r="CZ6" t="n">
-        <v>5.486333066073712e-06</v>
+        <v>1.080700826605607e-07</v>
       </c>
       <c r="DA6" t="n">
-        <v>5.618667273665778e-06</v>
+        <v>2.755866717052413e-07</v>
       </c>
       <c r="DB6" t="n">
-        <v>2.191774365201127e-05</v>
+        <v>6.015053344299304e-08</v>
       </c>
       <c r="DC6" t="n">
-        <v>1.211291646541213e-06</v>
+        <v>8.536501638900518e-08</v>
       </c>
       <c r="DD6" t="n">
-        <v>2.004283942369511e-06</v>
+        <v>1.703522798379709e-07</v>
       </c>
       <c r="DE6" t="n">
-        <v>4.511221959546674e-06</v>
+        <v>2.410640433936351e-07</v>
       </c>
       <c r="DF6" t="n">
-        <v>6.620076601393521e-05</v>
+        <v>4.225463499096804e-07</v>
       </c>
       <c r="DG6" t="n">
-        <v>3.371233469806612e-05</v>
+        <v>2.939833052550966e-07</v>
       </c>
       <c r="DH6" t="n">
-        <v>1.856574817793444e-05</v>
+        <v>1.136462856266007e-06</v>
       </c>
       <c r="DI6" t="n">
-        <v>2.836865314748138e-05</v>
+        <v>2.80054308632316e-07</v>
       </c>
       <c r="DJ6" t="n">
-        <v>6.498195944004692e-06</v>
+        <v>2.138136494522769e-07</v>
       </c>
       <c r="DK6" t="n">
-        <v>1.34820493258303e-05</v>
+        <v>2.009986985740397e-07</v>
       </c>
       <c r="DL6" t="n">
-        <v>3.942158218706027e-05</v>
+        <v>1.046619928501968e-07</v>
       </c>
       <c r="DM6" t="n">
-        <v>3.556219235179015e-05</v>
+        <v>2.036426707263672e-07</v>
       </c>
       <c r="DN6" t="n">
-        <v>2.638266778376419e-06</v>
+        <v>5.577982165050344e-08</v>
       </c>
       <c r="DO6" t="n">
-        <v>2.825294541253243e-05</v>
+        <v>4.050960455970198e-07</v>
       </c>
       <c r="DP6" t="n">
-        <v>1.84238851943519e-05</v>
+        <v>1.33250651401795e-07</v>
       </c>
       <c r="DQ6" t="n">
-        <v>2.631338429637253e-05</v>
+        <v>1.527248230104306e-07</v>
       </c>
       <c r="DR6" t="n">
-        <v>2.808375938911922e-05</v>
+        <v>4.585242407983969e-08</v>
       </c>
       <c r="DS6" t="n">
-        <v>1.749176044540945e-05</v>
+        <v>2.751450622895391e-09</v>
       </c>
       <c r="DT6" t="n">
-        <v>3.885053047270048e-06</v>
+        <v>1.724729514762657e-07</v>
       </c>
       <c r="DU6" t="n">
-        <v>3.069853391934885e-06</v>
+        <v>5.356073984330578e-08</v>
       </c>
       <c r="DV6" t="n">
-        <v>5.22615891895839e-06</v>
+        <v>3.168753721638495e-07</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.320093178946991e-05</v>
+        <v>2.411449600003834e-07</v>
       </c>
       <c r="DX6" t="n">
-        <v>1.927363518916536e-05</v>
+        <v>2.02566681650751e-07</v>
       </c>
       <c r="DY6" t="n">
-        <v>1.440224241378019e-05</v>
+        <v>4.319010429298942e-07</v>
       </c>
       <c r="DZ6" t="n">
-        <v>4.690948117058724e-06</v>
+        <v>1.980674824153539e-08</v>
       </c>
       <c r="EA6" t="n">
-        <v>1.802646875148639e-05</v>
+        <v>4.372738970914725e-08</v>
       </c>
       <c r="EB6" t="n">
-        <v>7.391533472400624e-06</v>
+        <v>1.753650025193565e-07</v>
       </c>
       <c r="EC6" t="n">
-        <v>1.877981958386954e-05</v>
+        <v>1.220195713358407e-07</v>
       </c>
       <c r="ED6" t="n">
-        <v>4.026266833534464e-05</v>
+        <v>3.498376699440087e-09</v>
       </c>
       <c r="EE6" t="n">
-        <v>2.233914892713074e-05</v>
+        <v>7.316133121548773e-08</v>
       </c>
       <c r="EF6" t="n">
-        <v>6.155778100946918e-05</v>
+        <v>1.55804855239694e-07</v>
       </c>
       <c r="EG6" t="n">
-        <v>5.39226493856404e-05</v>
+        <v>4.725147562112397e-07</v>
       </c>
       <c r="EH6" t="n">
-        <v>7.135069154173834e-06</v>
+        <v>2.881625391637499e-07</v>
       </c>
       <c r="EI6" t="n">
-        <v>4.684846135205589e-05</v>
+        <v>9.793629374144075e-08</v>
       </c>
       <c r="EJ6" t="n">
-        <v>2.030108225881122e-05</v>
+        <v>2.095224687082009e-07</v>
       </c>
       <c r="EK6" t="n">
-        <v>1.069558129529469e-05</v>
+        <v>2.010115167649928e-07</v>
       </c>
       <c r="EL6" t="n">
-        <v>7.48141246731393e-06</v>
+        <v>1.011128958339214e-07</v>
       </c>
       <c r="EM6" t="n">
-        <v>1.640749360376503e-05</v>
+        <v>2.506380702982369e-08</v>
       </c>
       <c r="EN6" t="n">
-        <v>3.066539647988975e-06</v>
+        <v>9.857676985802755e-08</v>
       </c>
       <c r="EO6" t="n">
-        <v>3.815172476606676e-06</v>
+        <v>8.832962805627176e-08</v>
       </c>
       <c r="EP6" t="n">
-        <v>5.013856934965588e-05</v>
+        <v>2.42328411559356e-07</v>
       </c>
       <c r="EQ6" t="n">
-        <v>6.350797775667161e-06</v>
+        <v>4.556753765427857e-07</v>
       </c>
       <c r="ER6" t="n">
-        <v>4.446252205525525e-06</v>
+        <v>1.41860553526385e-07</v>
       </c>
       <c r="ES6" t="n">
-        <v>4.133950278628618e-05</v>
+        <v>2.116461104151313e-07</v>
       </c>
       <c r="ET6" t="n">
-        <v>1.441306380911556e-06</v>
+        <v>3.188073094406718e-08</v>
       </c>
       <c r="EU6" t="n">
-        <v>4.350586095824838e-06</v>
+        <v>9.818015200835362e-08</v>
       </c>
       <c r="EV6" t="n">
-        <v>6.148606189526618e-06</v>
+        <v>4.733468870199431e-07</v>
       </c>
       <c r="EW6" t="n">
-        <v>5.656685516441939e-06</v>
+        <v>2.250197539410692e-08</v>
       </c>
       <c r="EX6" t="n">
-        <v>3.31804076267872e-05</v>
+        <v>6.028346888342639e-08</v>
       </c>
       <c r="EY6" t="n">
-        <v>3.368747638887726e-05</v>
+        <v>5.324162088982121e-07</v>
       </c>
       <c r="EZ6" t="n">
-        <v>1.281661570828874e-05</v>
+        <v>2.669382297426637e-07</v>
       </c>
       <c r="FA6" t="n">
-        <v>2.523580224078614e-05</v>
+        <v>1.823477759899106e-07</v>
       </c>
       <c r="FB6" t="n">
-        <v>7.972590537974611e-06</v>
+        <v>9.769066622311584e-08</v>
       </c>
       <c r="FC6" t="n">
-        <v>1.31023853100487e-05</v>
+        <v>2.471676054938143e-07</v>
       </c>
       <c r="FD6" t="n">
-        <v>1.936294211191125e-05</v>
+        <v>8.326153988491569e-08</v>
       </c>
       <c r="FE6" t="n">
-        <v>1.23928907669324e-06</v>
+        <v>3.003509618793032e-08</v>
       </c>
       <c r="FF6" t="n">
-        <v>3.45197713613743e-06</v>
+        <v>2.684807896002894e-07</v>
       </c>
       <c r="FG6" t="n">
-        <v>2.441312608425505e-05</v>
+        <v>2.948289363757794e-07</v>
       </c>
       <c r="FH6" t="n">
-        <v>2.959348648801097e-06</v>
+        <v>2.964027245866419e-08</v>
       </c>
       <c r="FI6" t="n">
-        <v>1.713790334179066e-05</v>
+        <v>4.243798628067452e-07</v>
       </c>
       <c r="FJ6" t="n">
-        <v>1.53539476741571e-05</v>
+        <v>3.620421864525269e-07</v>
       </c>
       <c r="FK6" t="n">
-        <v>1.408420030202251e-05</v>
+        <v>1.579079444979925e-08</v>
       </c>
       <c r="FL6" t="n">
-        <v>6.952063358767191e-06</v>
+        <v>3.563259838301747e-07</v>
       </c>
       <c r="FM6" t="n">
-        <v>2.699841934372671e-05</v>
+        <v>2.701854384667968e-08</v>
       </c>
       <c r="FN6" t="n">
-        <v>8.216872629418503e-06</v>
+        <v>4.110903830678581e-07</v>
       </c>
       <c r="FO6" t="n">
-        <v>1.07198020486976e-05</v>
+        <v>1.647045877462006e-07</v>
       </c>
       <c r="FP6" t="n">
-        <v>2.135870636266191e-05</v>
+        <v>1.101380320278622e-07</v>
       </c>
       <c r="FQ6" t="n">
-        <v>5.680666799889877e-05</v>
+        <v>1.515033147825307e-07</v>
       </c>
       <c r="FR6" t="n">
-        <v>8.138984412653372e-06</v>
+        <v>1.864830068143419e-07</v>
       </c>
       <c r="FS6" t="n">
-        <v>1.893231456051581e-05</v>
+        <v>1.949380532551004e-07</v>
       </c>
       <c r="FT6" t="n">
-        <v>2.446237886033487e-05</v>
+        <v>4.180322150659777e-07</v>
       </c>
       <c r="FU6" t="n">
-        <v>5.767197217210196e-05</v>
+        <v>2.339749016755377e-07</v>
       </c>
       <c r="FV6" t="n">
-        <v>3.093484701821581e-05</v>
+        <v>2.668860688004315e-08</v>
       </c>
       <c r="FW6" t="n">
-        <v>8.827752026263624e-06</v>
+        <v>2.886663139634038e-07</v>
       </c>
       <c r="FX6" t="n">
-        <v>1.609669379831757e-05</v>
+        <v>2.961237157705909e-07</v>
       </c>
       <c r="FY6" t="n">
-        <v>2.88328665192239e-05</v>
+        <v>6.741734068782534e-07</v>
       </c>
       <c r="FZ6" t="n">
-        <v>9.786478585738223e-06</v>
+        <v>1.04438242942706e-07</v>
       </c>
       <c r="GA6" t="n">
-        <v>2.390935151197482e-05</v>
+        <v>1.516102088316984e-07</v>
       </c>
       <c r="GB6" t="n">
-        <v>3.021330667252187e-05</v>
+        <v>7.387743750086884e-08</v>
       </c>
       <c r="GC6" t="n">
-        <v>1.507500201114453e-06</v>
+        <v>2.936281475740543e-07</v>
       </c>
       <c r="GD6" t="n">
-        <v>1.122918911278248e-05</v>
+        <v>2.773087715013389e-07</v>
       </c>
       <c r="GE6" t="n">
-        <v>3.385942181921564e-05</v>
+        <v>7.562042014797044e-07</v>
       </c>
       <c r="GF6" t="n">
-        <v>9.064488040166907e-07</v>
+        <v>1.701233571793637e-07</v>
       </c>
       <c r="GG6" t="n">
-        <v>2.550862882344518e-05</v>
+        <v>2.910508953846147e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1316033899784088</v>
+        <v>0.0002374263131059706</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03054425865411758</v>
+        <v>0.002523765899240971</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1445026099681854</v>
+        <v>0.0003460117732174695</v>
       </c>
       <c r="D7" t="n">
-        <v>0.008705395273864269</v>
+        <v>0.002188677899539471</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02039306983351707</v>
+        <v>0.0006042835884727538</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0192726943641901</v>
+        <v>0.004816655535250902</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04350277408957481</v>
+        <v>0.001463473308831453</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03292049095034599</v>
+        <v>0.003200932405889034</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03848874568939209</v>
+        <v>0.0006251570302993059</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1174947023391724</v>
+        <v>0.0003996531304437667</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01782767102122307</v>
+        <v>0.002777280518785119</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1467088758945465</v>
+        <v>0.000243763264734298</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01399013213813305</v>
+        <v>0.0007626391598023474</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03704595193266869</v>
+        <v>0.001703612972050905</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004413691814988852</v>
+        <v>0.004250139929354191</v>
       </c>
       <c r="P7" t="n">
-        <v>0.04381692036986351</v>
+        <v>0.002046583220362663</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.02836425974965096</v>
+        <v>0.000573975732550025</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0525820180773735</v>
+        <v>0.001351870014332235</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001449876232072711</v>
+        <v>0.0001588760642334819</v>
       </c>
       <c r="T7" t="n">
-        <v>0.01946906372904778</v>
+        <v>0.0005583931342698634</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002872103825211525</v>
+        <v>0.0005288562970235944</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001276481081731617</v>
+        <v>0.0005930119077675045</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04704568535089493</v>
+        <v>0.001058021909557283</v>
       </c>
       <c r="X7" t="n">
-        <v>0.02213565446436405</v>
+        <v>0.0006622343207709491</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.005060236435383558</v>
+        <v>8.553639054298401e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.006533493287861347</v>
+        <v>0.000158166978508234</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01060031447559595</v>
+        <v>0.0002394411567365751</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0009004621533676982</v>
+        <v>0.0008470246102660894</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.02126887068152428</v>
+        <v>0.000124843863886781</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.00992407463490963</v>
+        <v>0.0001788462104741484</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.01272735092788935</v>
+        <v>0.0001769242517184466</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.02125163003802299</v>
+        <v>0.0003467600618023425</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0280187577009201</v>
+        <v>0.0006321848486550152</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.003447016235440969</v>
+        <v>0.0003640481154434383</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.007148665376007557</v>
+        <v>0.0004849391989409924</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.01951194368302822</v>
+        <v>0.0009250554139725864</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.02560697495937347</v>
+        <v>0.0006574410945177078</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.02861867100000381</v>
+        <v>0.0004799373564310372</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.01180652435868979</v>
+        <v>0.0004169661551713943</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.02526303194463253</v>
+        <v>5.041412077844143e-05</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.00753379799425602</v>
+        <v>0.0006322961417026818</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.01906724087893963</v>
+        <v>0.001254020258784294</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.001040055882185698</v>
+        <v>5.419774970505387e-05</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0004856102168560028</v>
+        <v>0.0009345617727376521</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.004585914313793182</v>
+        <v>2.382798993494362e-05</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.06258951872587204</v>
+        <v>0.00133896095212549</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.02983215823769569</v>
+        <v>0.001851633074693382</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.07773567736148834</v>
+        <v>0.0005236744182184339</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.007661557756364346</v>
+        <v>0.0005071128834970295</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.02578688226640224</v>
+        <v>0.0009627314284443855</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.02295703999698162</v>
+        <v>0.0008339757332578301</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.004361201077699661</v>
+        <v>0.0004255651438143104</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.01227192021906376</v>
+        <v>0.002254186663776636</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.005969760939478874</v>
+        <v>0.0005258105229586363</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.02817489765584469</v>
+        <v>0.0001176719088107347</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.004264113027602434</v>
+        <v>9.314834460383281e-05</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.02651035785675049</v>
+        <v>0.0004109768487978727</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.001173674128949642</v>
+        <v>0.000911257229745388</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0441792868077755</v>
+        <v>0.0007379283779300749</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.03086798638105392</v>
+        <v>0.002582289278507233</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.01857846789062023</v>
+        <v>0.00106522417627275</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.02166334539651871</v>
+        <v>0.0002275377191836014</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0199775043874979</v>
+        <v>0.0003275170456618071</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.01032272167503834</v>
+        <v>0.0002722183999139816</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.006281864829361439</v>
+        <v>0.0004270153003744781</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.02443235367536545</v>
+        <v>0.0005080648115836084</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.005315399263054132</v>
+        <v>0.001000064774416387</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.04146454483270645</v>
+        <v>0.0002312996075488627</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.03465862199664116</v>
+        <v>0.0006817643297836185</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.03618580847978592</v>
+        <v>0.0001373191480524838</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.03698475286364555</v>
+        <v>0.0002265449438709766</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.01375993620604277</v>
+        <v>0.0006518752197735012</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.04730691015720367</v>
+        <v>8.5296924225986e-06</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.007508761249482632</v>
+        <v>0.0008066978771239519</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.03614385798573494</v>
+        <v>0.0004031300195492804</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.006884174421429634</v>
+        <v>0.0002244158677058294</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.01212165132164955</v>
+        <v>0.0005352637963369489</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.009247267618775368</v>
+        <v>0.0003775343939196318</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.02286968193948269</v>
+        <v>0.0001672197395237163</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.021306237205863</v>
+        <v>0.0007883792277425528</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.001422557979822159</v>
+        <v>8.522278949385509e-05</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.02702238038182259</v>
+        <v>0.0001839088363340124</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.02923206239938736</v>
+        <v>0.0002978660340886563</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.03047737665474415</v>
+        <v>5.064087599748746e-05</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.001385195646435022</v>
+        <v>0.0006833364022895694</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.0009760493412613869</v>
+        <v>0.000147166836541146</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.001614865497685969</v>
+        <v>0.000535413739271462</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.004914882127195597</v>
+        <v>0.000564145331736654</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.01412501186132431</v>
+        <v>0.0003423955058678985</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.01186455693095922</v>
+        <v>4.264155722921714e-05</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.005996496882289648</v>
+        <v>0.0004811579128727317</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.004802617244422436</v>
+        <v>0.0005449388409033418</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.005267704837024212</v>
+        <v>0.0003529594978317618</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.01127938739955425</v>
+        <v>0.0005751105491071939</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0344795435667038</v>
+        <v>0.0004386866639833897</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.00725247897207737</v>
+        <v>0.0005922384443692863</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.01511180587112904</v>
+        <v>0.0005958392866887152</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.002531502861529589</v>
+        <v>0.0001157633378170431</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.007718493230640888</v>
+        <v>0.0006480521988123655</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.02811465784907341</v>
+        <v>5.128400516696274e-06</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.02683211676776409</v>
+        <v>0.0003171322168782353</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.02973222173750401</v>
+        <v>8.643584442324936e-05</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.002333684591576457</v>
+        <v>0.0005202259635552764</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0170817244797945</v>
+        <v>8.171143417712301e-05</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.001523680868558586</v>
+        <v>0.0007643777644261718</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.003090375801548362</v>
+        <v>0.0005306777893565595</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.008449461311101913</v>
+        <v>0.0004559509106911719</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.007876215502619743</v>
+        <v>0.0002781941439025104</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.01379743684083223</v>
+        <v>0.0002536923857405782</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.04546428844332695</v>
+        <v>0.001410113763995469</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.01433811988681555</v>
+        <v>0.0003748437447939068</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.007777745369821787</v>
+        <v>0.00250391848385334</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.01092653535306454</v>
+        <v>0.002306014765053988</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.02383048459887505</v>
+        <v>0.002508270787075162</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.01355607621371746</v>
+        <v>0.0008905349532142282</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.02699847146868706</v>
+        <v>0.000589547271374613</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.000320027582347393</v>
+        <v>2.202227915404364e-05</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.001687564188614488</v>
+        <v>0.0001258950505871326</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.02657775208353996</v>
+        <v>0.0003459297586232424</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.00430742371827364</v>
+        <v>0.0002413007750874385</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.007686318829655647</v>
+        <v>0.0004977022181265056</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.01370535790920258</v>
+        <v>0.001316178473643959</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0486438013613224</v>
+        <v>4.982216341886669e-05</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.01219121553003788</v>
+        <v>0.002067752182483673</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.00713726319372654</v>
+        <v>0.0001394618884660304</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.006037828512489796</v>
+        <v>0.0005294250440783799</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.01388711668550968</v>
+        <v>3.171380376443267e-05</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.01988226920366287</v>
+        <v>0.0007866026135161519</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.002847560681402683</v>
+        <v>0.0008642965694889426</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.001382396556437016</v>
+        <v>0.0001841109478846192</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.01047717593610287</v>
+        <v>0.001123781083151698</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.01790439523756504</v>
+        <v>0.0004651288036257029</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.02762051112949848</v>
+        <v>0.0002627804933581501</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.01641343720257282</v>
+        <v>0.0004793237894773483</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.0003877042036037892</v>
+        <v>0.0003271734167356044</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.03963399305939674</v>
+        <v>5.537563993129879e-06</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.01503658853471279</v>
+        <v>0.0004119369550608099</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.03282483294606209</v>
+        <v>0.0002147125196643174</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.007754586637020111</v>
+        <v>0.0003417374973651022</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.005350298248231411</v>
+        <v>0.0002356767363380641</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.03397359326481819</v>
+        <v>0.001204285537824035</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.01154802832752466</v>
+        <v>9.466413757763803e-05</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.02502548880875111</v>
+        <v>7.515001925639808e-06</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.00798505824059248</v>
+        <v>0.000338839105097577</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.002105685882270336</v>
+        <v>7.652854401385412e-05</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.0116769215092063</v>
+        <v>0.0003263507387600839</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.006799092050641775</v>
+        <v>0.0001466195972170681</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.006679248996078968</v>
+        <v>0.00075849040877074</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.005060326308012009</v>
+        <v>9.513692202745005e-05</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.01439402252435684</v>
+        <v>0.0006495980196632445</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.0008759442716836929</v>
+        <v>0.0007080381619744003</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.01502692606300116</v>
+        <v>0.000728482031263411</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.005677719600498676</v>
+        <v>0.0007874618750065565</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.03005891665816307</v>
+        <v>0.0001516962074674666</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.02121379226446152</v>
+        <v>0.0002138304407708347</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.03054348938167095</v>
+        <v>8.600180444773287e-05</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.004445650149136782</v>
+        <v>0.0005733727593906224</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.0121801495552063</v>
+        <v>4.029960837215185e-05</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.005789031274616718</v>
+        <v>0.0006617263425141573</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.0004756280686706305</v>
+        <v>0.0005867599393241107</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.01920861750841141</v>
+        <v>0.0004496744659263641</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.00851458590477705</v>
+        <v>0.0002919729449786246</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.01460308395326138</v>
+        <v>2.328273694729432e-05</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.02596869319677353</v>
+        <v>0.001262950128875673</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.03404472023248672</v>
+        <v>0.0007431039121001959</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.02172242477536201</v>
+        <v>0.0008654854027554393</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.02639257721602917</v>
+        <v>0.000488457502797246</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.01046971417963505</v>
+        <v>0.0002679043100215495</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.001547620981000364</v>
+        <v>0.0002883840352296829</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.03614068776369095</v>
+        <v>0.0006282557733356953</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.01720486581325531</v>
+        <v>0.0003989133110735565</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.01371478475630283</v>
+        <v>1.369020537822507e-05</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.07235516607761383</v>
+        <v>0.001081103808246553</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.02647293917834759</v>
+        <v>0.001842471654526889</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.04300622642040253</v>
+        <v>0.0002384409017395228</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0371629111468792</v>
+        <v>0.001955617219209671</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.002613686257973313</v>
+        <v>0.0004704095190390944</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.01117466110736132</v>
+        <v>0.0003462505992501974</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.005271458998322487</v>
+        <v>0.001882411888800561</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.03126696869730949</v>
+        <v>0.0001665577001404017</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.01305319182574749</v>
+        <v>0.0001139307714765891</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0007832457195036113</v>
+        <v>0.0002783000818453729</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.01039199810475111</v>
+        <v>0.0004884188529103994</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.03851219639182091</v>
+        <v>0.0003703508118633181</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.01823792792856693</v>
+        <v>0.002002417808398604</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.003501023864373565</v>
+        <v>0.0007123156683519483</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.006317573599517345</v>
+        <v>0.00113112828694284</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.01016370672732592</v>
+        <v>0.0005986580508761108</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.007010208442807198</v>
+        <v>0.0007440397748723626</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01870615407824516</v>
+        <v>0.0004118129727430642</v>
       </c>
       <c r="B8" t="n">
-        <v>0.008089000359177589</v>
+        <v>0.007756754290312529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09193482995033264</v>
+        <v>0.000422396813519299</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002732846885919571</v>
+        <v>0.003180555999279022</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02618077769875526</v>
+        <v>0.0007339577423408628</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01635562442243099</v>
+        <v>0.005864545237272978</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001318899914622307</v>
+        <v>0.0005485326983034611</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01047062873840332</v>
+        <v>0.002456562127918005</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05162353068590164</v>
+        <v>4.051224823342636e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02107609249651432</v>
+        <v>0.001661615213379264</v>
       </c>
       <c r="K8" t="n">
-        <v>0.009561829268932343</v>
+        <v>0.006437366362661123</v>
       </c>
       <c r="L8" t="n">
-        <v>0.09930896013975143</v>
+        <v>0.0003637332993093878</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001783541403710842</v>
+        <v>0.003352949395775795</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002579055726528168</v>
+        <v>0.0003611576976254582</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01395777985453606</v>
+        <v>0.005545507650822401</v>
       </c>
       <c r="P8" t="n">
-        <v>0.003895893227308989</v>
+        <v>0.0008413924952037632</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.003149410476908088</v>
+        <v>0.0008144238963723183</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0551595613360405</v>
+        <v>0.0007833329145796597</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005667516030371189</v>
+        <v>5.475504076457582e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>0.009463299065828323</v>
+        <v>0.000650558271445334</v>
       </c>
       <c r="U8" t="n">
-        <v>0.006580271758139133</v>
+        <v>0.0003979194443672895</v>
       </c>
       <c r="V8" t="n">
-        <v>0.006045788992196321</v>
+        <v>0.000890272727701813</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0005096502136439085</v>
+        <v>0.0009570568799972534</v>
       </c>
       <c r="X8" t="n">
-        <v>0.009803773835301399</v>
+        <v>0.001007641316391528</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.006200902629643679</v>
+        <v>0.00070143339689821</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.000860169529914856</v>
+        <v>0.001104658702388406</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.001605951925739646</v>
+        <v>0.001025261241011322</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.005434794351458549</v>
+        <v>7.624702993780375e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.01538938749581575</v>
+        <v>0.001038017449900508</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.005685256794095039</v>
+        <v>0.0003369622281752527</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0106420423835516</v>
+        <v>0.0005372431478463113</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.001231750240549445</v>
+        <v>0.0003466648049652576</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.008174360729753971</v>
+        <v>0.0002582592715043575</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.003446656279265881</v>
+        <v>8.894203347153962e-05</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.007262320723384619</v>
+        <v>0.0001163516353699379</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.01207375526428223</v>
+        <v>0.0003536911681294441</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.005541546735912561</v>
+        <v>0.0007593021146021783</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.004214161075651646</v>
+        <v>0.0008937341626733541</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.01860506646335125</v>
+        <v>0.0001060988870449364</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.002369909780099988</v>
+        <v>0.0007511891890317202</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.002616423647850752</v>
+        <v>0.0007590733584947884</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.009161272086203098</v>
+        <v>0.001238575205206871</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0002903135027736425</v>
+        <v>0.0003379251284059137</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.01371428649872541</v>
+        <v>0.0003488370857667178</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0001079952635336667</v>
+        <v>0.0009130854159593582</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.00994553230702877</v>
+        <v>0.0009974436834454536</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.002601474523544312</v>
+        <v>0.004815455060452223</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.04578706622123718</v>
+        <v>0.0006242240197025239</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.006181424017995596</v>
+        <v>0.0002660881436895579</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0008532435167580843</v>
+        <v>0.000286811264231801</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.01944571174681187</v>
+        <v>0.00390477804467082</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.006477711256593466</v>
+        <v>0.001380173140205443</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.002724036108702421</v>
+        <v>0.001135177095420659</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.01042044162750244</v>
+        <v>0.0022151586599648</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.004548251628875732</v>
+        <v>0.0009359559044241905</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.01096028368920088</v>
+        <v>0.001637836219742894</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0239090770483017</v>
+        <v>0.001805179635994136</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0004086545668542385</v>
+        <v>0.001113621750846505</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.01029833406209946</v>
+        <v>0.001551203895360231</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.01814946345984936</v>
+        <v>0.001571945496834815</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.001505321823060513</v>
+        <v>0.00109085557051003</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.001724772155284882</v>
+        <v>0.0009566480293869972</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.02369860745966434</v>
+        <v>0.000576210324652493</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.009039618074893951</v>
+        <v>0.0002434018824715167</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.008684594184160233</v>
+        <v>0.001655094791203737</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.01976750791072845</v>
+        <v>9.593482536729425e-05</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.001946583157405257</v>
+        <v>0.0007076783804222941</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.02087092027068138</v>
+        <v>0.0002834241895470768</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.004084572196006775</v>
+        <v>0.0005569712375290692</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.001872201100923121</v>
+        <v>0.0003283550904598087</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.004412706010043621</v>
+        <v>0.0002256097504869103</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.003014501184225082</v>
+        <v>0.0009117294102907181</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.01067366451025009</v>
+        <v>0.0004342779866419733</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.001659443019889295</v>
+        <v>0.002745712641626596</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.0288117416203022</v>
+        <v>0.0009119783062487841</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.0004120717057958245</v>
+        <v>0.000428529514465481</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.0180208757519722</v>
+        <v>0.0001071296428563073</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.01134047750383615</v>
+        <v>0.001949265832081437</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.002501638606190681</v>
+        <v>1.259689452126622e-05</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.001753112650476396</v>
+        <v>0.0005339424824342132</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.01711997576057911</v>
+        <v>0.001068686367943883</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.007902681827545166</v>
+        <v>5.578006675932556e-05</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.008511455729603767</v>
+        <v>0.001112511847168207</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.01566708832979202</v>
+        <v>0.0007332982495427132</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.0002497493987902999</v>
+        <v>0.0004150521417614073</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.00235570315271616</v>
+        <v>0.0001154752681031823</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.007127947639673948</v>
+        <v>0.0008121521095745265</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.002908470807597041</v>
+        <v>0.000508734374307096</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.005270438268780708</v>
+        <v>0.000495127635076642</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.007356957066804171</v>
+        <v>0.0006315935170277953</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.01474671624600887</v>
+        <v>0.0008373979362659156</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.004548681899905205</v>
+        <v>0.0005343370139598846</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.001761921914294362</v>
+        <v>0.0001617862144485116</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.005735883023589849</v>
+        <v>0.001126809744164348</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.006689803674817085</v>
+        <v>0.0001454395242035389</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.002436017617583275</v>
+        <v>3.553688293322921e-05</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.00707256468012929</v>
+        <v>0.0009846515022218227</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.007582663558423519</v>
+        <v>0.0009280579397454858</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.0003114272840321064</v>
+        <v>0.0001371886173728853</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.008585165254771709</v>
+        <v>4.911555879516527e-05</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.005058409180492163</v>
+        <v>0.0009619264164939523</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.01585756056010723</v>
+        <v>0.000802986731287092</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.0006872705998830497</v>
+        <v>0.0007353606633841991</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.008356522768735886</v>
+        <v>0.0002419349475530908</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.008972886018455029</v>
+        <v>0.0008427781285718083</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.001559096970595419</v>
+        <v>0.0004146330174989998</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.003480480285361409</v>
+        <v>0.000859975116327405</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.008692404255270958</v>
+        <v>0.0005196037818677723</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.00401526503264904</v>
+        <v>0.0003694098559208214</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.02877561189234257</v>
+        <v>0.0006494661793112755</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.02041126042604446</v>
+        <v>2.099466655636206e-06</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.007614863105118275</v>
+        <v>0.003101311391219497</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.003387519624084234</v>
+        <v>0.0001211488852277398</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.01348427496850491</v>
+        <v>0.002420138800516725</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.004091178998351097</v>
+        <v>0.0006956837605684996</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.0008105081506073475</v>
+        <v>0.001732248696498573</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.001497090561315417</v>
+        <v>0.001112361089326441</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.002688996959477663</v>
+        <v>0.0001216532473335974</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.009692137129604816</v>
+        <v>0.0005922499112784863</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.0004863318172283471</v>
+        <v>0.0003121623594779521</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.004293457604944706</v>
+        <v>2.654627314768732e-05</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.003927863202989101</v>
+        <v>0.0001113657854148187</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.006258733104914427</v>
+        <v>0.0007385864737443626</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.005293996538966894</v>
+        <v>0.000110156019218266</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.01093054842203856</v>
+        <v>0.0002453447959851474</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.002453684341162443</v>
+        <v>0.0006171002169139683</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.0081502515822649</v>
+        <v>0.0001774419797584414</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.00517315324395895</v>
+        <v>0.0001146161885117181</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.007792740128934383</v>
+        <v>0.00085062300786376</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.002433047164231539</v>
+        <v>0.0004332169482950121</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.006469295360147953</v>
+        <v>5.801381485071033e-05</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.004099860787391663</v>
+        <v>0.001008750055916607</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.001478314050473273</v>
+        <v>0.0001921435759868473</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.001430083764716983</v>
+        <v>0.0003670227015390992</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.009118271991610527</v>
+        <v>0.00110764498822391</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.009858584031462669</v>
+        <v>0.000315052893711254</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.005972984246909618</v>
+        <v>0.0006094678537920117</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.01877133175730705</v>
+        <v>0.0005905646248720586</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.001456012716516852</v>
+        <v>0.0002355063916184008</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.003253854811191559</v>
+        <v>0.0004622415290214121</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.0220270324498415</v>
+        <v>0.0002024084533331916</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.001759547856636345</v>
+        <v>0.0007599826203659177</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.004148934967815876</v>
+        <v>0.0005760305793955922</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.002190948929637671</v>
+        <v>9.835670061875135e-05</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.001959205605089664</v>
+        <v>4.533008905127645e-05</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.004818488843739033</v>
+        <v>0.0005720889312215149</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.005474750883877277</v>
+        <v>0.0009157411986961961</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.002722088946029544</v>
+        <v>0.0002602490421850234</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.0004133016336709261</v>
+        <v>0.0005304197547957301</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.0009952373802661896</v>
+        <v>0.0001891443971544504</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.003587945131585002</v>
+        <v>0.0008948687463998795</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.007136536296457052</v>
+        <v>0.001614282606169581</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.009305791929364204</v>
+        <v>0.0003199102648068219</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.01067601889371872</v>
+        <v>4.806947254110128e-05</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.003636299166828394</v>
+        <v>0.000984931131824851</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.01620003208518028</v>
+        <v>0.0005924647557549179</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.001730562653392553</v>
+        <v>0.0003447326307650656</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.004970753099769354</v>
+        <v>0.0002935984230134636</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.005552403628826141</v>
+        <v>0.0006848868215456605</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0009701693197712302</v>
+        <v>0.0008298109169118106</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.003018615301698446</v>
+        <v>0.0005210612434893847</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.01078891381621361</v>
+        <v>0.0008355280733667314</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.001928840414620936</v>
+        <v>0.0005222597392275929</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.009191492572426796</v>
+        <v>0.0006210406427271664</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.01481185480952263</v>
+        <v>0.000554107129573822</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.00353812356479466</v>
+        <v>0.001472773728892207</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.007444027811288834</v>
+        <v>0.0001247907057404518</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.002063194056972861</v>
+        <v>0.0006381084676831961</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.0003559304168447852</v>
+        <v>8.785462705418468e-05</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.01075417920947075</v>
+        <v>0.0005224636988714337</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.003486538305878639</v>
+        <v>0.0005231930408626795</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0006568180397152901</v>
+        <v>0.0006523008341901004</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.02353908494114876</v>
+        <v>0.0003317184746265411</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.005929739214479923</v>
+        <v>0.0006565037765540183</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.006307022646069527</v>
+        <v>0.0008483353885821998</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.009845338761806488</v>
+        <v>0.0004996851203031838</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.002480848925188184</v>
+        <v>0.0005580995930358768</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0004088351561222225</v>
+        <v>0.0007286160252988338</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.006010622251778841</v>
+        <v>0.0008091498166322708</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.009152548387646675</v>
+        <v>0.0008693806594237685</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.004676313139498234</v>
+        <v>0.001355200656689703</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.004515884444117546</v>
+        <v>0.0002858682128135115</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.0113277155905962</v>
+        <v>0.0008948341128416359</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.01288973726332188</v>
+        <v>0.0002462587144691497</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.01218819245696068</v>
+        <v>0.0004305460897739977</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.002823276212438941</v>
+        <v>0.0006741653778590262</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.004670710302889347</v>
+        <v>0.002687775762751698</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.008048245683312416</v>
+        <v>0.0008148502092808485</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.003132402431219816</v>
+        <v>0.0003641460789367557</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01145018730312586</v>
+        <v>6.467221203010354e-10</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0001108169963117689</v>
+        <v>5.241297396096911e-10</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006033930461853743</v>
+        <v>4.926535290827871e-10</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0003321435651741922</v>
+        <v>5.327869256888107e-10</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002101252321153879</v>
+        <v>8.039029442130641e-10</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0001187241869047284</v>
+        <v>1.455565667995984e-10</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003149341326206923</v>
+        <v>2.990631353672057e-11</v>
       </c>
       <c r="H9" t="n">
-        <v>0.005614709574729204</v>
+        <v>6.499308730090192e-11</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0041651651263237</v>
+        <v>3.275905657851297e-10</v>
       </c>
       <c r="J9" t="n">
-        <v>0.009597483091056347</v>
+        <v>3.170376183803114e-10</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001278757234103978</v>
+        <v>7.983579353165737e-10</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006261457689106464</v>
+        <v>1.979754554737312e-10</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0003279817174188793</v>
+        <v>1.615542144506321e-10</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002180196344852448</v>
+        <v>1.689544476546345e-10</v>
       </c>
       <c r="O9" t="n">
-        <v>0.000417947128880769</v>
+        <v>2.612131067003531e-10</v>
       </c>
       <c r="P9" t="n">
-        <v>0.005057666450738907</v>
+        <v>3.892411670758378e-10</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.003607415128499269</v>
+        <v>2.098526907801102e-10</v>
       </c>
       <c r="R9" t="n">
-        <v>0.00696765910834074</v>
+        <v>1.853831810283424e-10</v>
       </c>
       <c r="S9" t="n">
-        <v>6.243292591534555e-05</v>
+        <v>1.853161929465941e-10</v>
       </c>
       <c r="T9" t="n">
-        <v>0.000290494121145457</v>
+        <v>2.176717972535158e-10</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0005386872799135745</v>
+        <v>1.678146233086153e-10</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0001492769952164963</v>
+        <v>2.189023129428591e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>0.003226307686418295</v>
+        <v>6.321529411046356e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>0.00199802708812058</v>
+        <v>1.206410804588387e-10</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0005263164639472961</v>
+        <v>3.640618917444272e-10</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0002958458208013326</v>
+        <v>1.295877571916293e-10</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.0002216222928836942</v>
+        <v>1.954703204853914e-10</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.001047364668920636</v>
+        <v>1.486393508276507e-10</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.0001653482904657722</v>
+        <v>2.299167384256506e-10</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.001050980528816581</v>
+        <v>4.61708005161654e-10</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.0005272821290418506</v>
+        <v>1.127182236437818e-10</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0001782872132025659</v>
+        <v>1.946704186739368e-10</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.001894820481538773</v>
+        <v>3.394416692170665e-10</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.002299409359693527</v>
+        <v>1.257462051151848e-10</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0004609415773302317</v>
+        <v>9.482450935571762e-11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.0008514224318787456</v>
+        <v>1.458377862917359e-10</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.002048354363068938</v>
+        <v>2.77679462756808e-10</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.002460210584104061</v>
+        <v>1.165541135828008e-10</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.0003528700035531074</v>
+        <v>2.022602502149695e-10</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.001446072477847338</v>
+        <v>1.648163688861004e-10</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.001233356073498726</v>
+        <v>1.026978849183457e-11</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0006044048350304365</v>
+        <v>1.754517642282849e-10</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.0006154865841381252</v>
+        <v>3.060831449408496e-11</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.001228654407896101</v>
+        <v>3.248440405556607e-10</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.0006508004735223949</v>
+        <v>4.026858707595338e-12</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.006486530881375074</v>
+        <v>3.278122495675717e-10</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.004029346164315939</v>
+        <v>2.217035999230177e-10</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.004453664645552635</v>
+        <v>1.675674599077581e-10</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.0007861003978177905</v>
+        <v>5.923527224283021e-10</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0001253514783456922</v>
+        <v>6.099709626283811e-10</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.002730116946622729</v>
+        <v>1.50157622447189e-10</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.002003582660108805</v>
+        <v>4.344806181499905e-10</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.003550287568941712</v>
+        <v>2.658016584611289e-10</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.0001549277221783996</v>
+        <v>3.4720330777116e-11</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.001751163974404335</v>
+        <v>1.573055713466331e-10</v>
       </c>
       <c r="BD9" t="n">
-        <v>0.0002695001312531531</v>
+        <v>3.043706398031532e-10</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.002573867095634341</v>
+        <v>3.236693968400317e-10</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.001274667331017554</v>
+        <v>1.780793984496043e-10</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.0002907590242102742</v>
+        <v>1.135480598435379e-11</v>
       </c>
       <c r="BH9" t="n">
-        <v>0.002385282889008522</v>
+        <v>2.584429059648841e-10</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.001721907407045364</v>
+        <v>1.095311757959294e-10</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.002042522421106696</v>
+        <v>4.313618073847891e-10</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.003455109428614378</v>
+        <v>2.015919653430842e-10</v>
       </c>
       <c r="BL9" t="n">
-        <v>0.001894244225695729</v>
+        <v>4.758207716726304e-11</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.0001375638821627945</v>
+        <v>5.200080643863458e-11</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.001777417957782745</v>
+        <v>5.919119361319503e-11</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.0002845046401489526</v>
+        <v>1.468636878776408e-10</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.001223943312652409</v>
+        <v>1.512081848620284e-10</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.002247140510007739</v>
+        <v>3.780600832392622e-12</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.0003052753745578229</v>
+        <v>6.773121646874714e-11</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.001756511395797133</v>
+        <v>5.861713892052478e-12</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.001123438938520849</v>
+        <v>7.941763913166255e-11</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.004987073130905628</v>
+        <v>3.493218769801132e-10</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.002724574878811836</v>
+        <v>6.791887885437831e-11</v>
       </c>
       <c r="BW9" t="n">
-        <v>0.0009124325588345528</v>
+        <v>3.454809216485444e-10</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0007555625634267926</v>
+        <v>2.739812023089261e-11</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.003573414171114564</v>
+        <v>4.362517291855994e-10</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.0003773414646275342</v>
+        <v>2.672786297841512e-11</v>
       </c>
       <c r="CA9" t="n">
-        <v>0.0008356106118299067</v>
+        <v>1.012436523506466e-10</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.002184367040172219</v>
+        <v>1.743686306454606e-10</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.000474597531137988</v>
+        <v>1.903011082049488e-11</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.00260468153283</v>
+        <v>3.566362136164791e-11</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.002283425768837333</v>
+        <v>1.165500612687609e-10</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.001163813285529613</v>
+        <v>5.360718119407082e-11</v>
       </c>
       <c r="CG9" t="n">
-        <v>0.0002982880687341094</v>
+        <v>4.415876345142955e-11</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.0006756550865247846</v>
+        <v>6.956206444197477e-12</v>
       </c>
       <c r="CI9" t="n">
-        <v>6.860389839857817e-05</v>
+        <v>2.715000273212365e-11</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.0005493541248142719</v>
+        <v>6.968081667224624e-11</v>
       </c>
       <c r="CK9" t="n">
-        <v>0.0001564376289024949</v>
+        <v>5.525997021083029e-11</v>
       </c>
       <c r="CL9" t="n">
-        <v>0.0006128497188910842</v>
+        <v>1.447976877289037e-10</v>
       </c>
       <c r="CM9" t="n">
-        <v>0.002677871147170663</v>
+        <v>1.230300167298637e-10</v>
       </c>
       <c r="CN9" t="n">
-        <v>0.0002852604957297444</v>
+        <v>7.555150949301037e-12</v>
       </c>
       <c r="CO9" t="n">
-        <v>0.002702542580664158</v>
+        <v>8.315188815277708e-11</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.001985606038942933</v>
+        <v>1.403539506839024e-10</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.001311899977736175</v>
+        <v>3.585582941667553e-10</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.0003508058725856245</v>
+        <v>1.017912837353308e-11</v>
       </c>
       <c r="CS9" t="n">
-        <v>0.00369642861187458</v>
+        <v>1.628639445527824e-10</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.003647236153483391</v>
+        <v>3.173965534841727e-10</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.000284071487840265</v>
+        <v>3.042615881465593e-10</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.002928326604887843</v>
+        <v>5.757270354900257e-11</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.002007456962019205</v>
+        <v>5.930866908698817e-11</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.001651728292927146</v>
+        <v>2.26363892907866e-12</v>
       </c>
       <c r="CY9" t="n">
-        <v>0.0003741382097359747</v>
+        <v>7.441661870055682e-11</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.0009288433357141912</v>
+        <v>2.235643441206303e-11</v>
       </c>
       <c r="DA9" t="n">
-        <v>0.000205621327040717</v>
+        <v>5.480399467572283e-11</v>
       </c>
       <c r="DB9" t="n">
-        <v>0.0002721257042139769</v>
+        <v>8.086210173674502e-11</v>
       </c>
       <c r="DC9" t="n">
-        <v>2.709927503019571e-05</v>
+        <v>2.196626387729328e-11</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.0005148830823600292</v>
+        <v>1.706459973327412e-10</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.001200760016217828</v>
+        <v>3.27089327845087e-10</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.004800331778824329</v>
+        <v>3.276774962479578e-10</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.000124333513667807</v>
+        <v>4.006019960201002e-10</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.001370433834381402</v>
+        <v>4.212301063510893e-10</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.0004832830163650215</v>
+        <v>5.144866754847044e-10</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.00340361101552844</v>
+        <v>6.446815303817743e-11</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.001384439063258469</v>
+        <v>1.606244998120232e-11</v>
       </c>
       <c r="DL9" t="n">
-        <v>6.157706957310438e-05</v>
+        <v>7.617772523893507e-10</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.001841611228883266</v>
+        <v>3.67400332379475e-10</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.0006750991451554</v>
+        <v>1.367673196916996e-10</v>
       </c>
       <c r="DO9" t="n">
-        <v>0.003020603908225894</v>
+        <v>2.297177448262744e-10</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.0005790001014247537</v>
+        <v>1.26478327810986e-10</v>
       </c>
       <c r="DQ9" t="n">
-        <v>5.9283192967996e-06</v>
+        <v>3.853811991749723e-10</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.001281341654248536</v>
+        <v>3.198113301960959e-11</v>
       </c>
       <c r="DS9" t="n">
-        <v>0.002045338740572333</v>
+        <v>1.151545248045949e-10</v>
       </c>
       <c r="DT9" t="n">
-        <v>0.002080375095829368</v>
+        <v>6.174680905468577e-11</v>
       </c>
       <c r="DU9" t="n">
-        <v>0.001950744423083961</v>
+        <v>6.457724632813466e-11</v>
       </c>
       <c r="DV9" t="n">
-        <v>0.0008520650444552302</v>
+        <v>6.951254849507649e-11</v>
       </c>
       <c r="DW9" t="n">
-        <v>0.000431040592957288</v>
+        <v>1.790132764245556e-10</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.0006901157903485</v>
+        <v>1.361079582373748e-10</v>
       </c>
       <c r="DY9" t="n">
-        <v>0.0004178951494395733</v>
+        <v>4.317010360299633e-10</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0.001140035805292428</v>
+        <v>1.314080927405925e-10</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.00223818514496088</v>
+        <v>2.23965929135872e-10</v>
       </c>
       <c r="EB9" t="n">
-        <v>0.0003948423254769295</v>
+        <v>7.085571018805581e-11</v>
       </c>
       <c r="EC9" t="n">
-        <v>0.001017888775095344</v>
+        <v>6.045260125819851e-11</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.0001997460494749248</v>
+        <v>1.144325745272567e-10</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.0005768826231360435</v>
+        <v>1.894083778708477e-10</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.0020872144959867</v>
+        <v>2.728609005409055e-10</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.001616626046597958</v>
+        <v>9.425096814119627e-11</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.001162868109531701</v>
+        <v>8.570168880117635e-11</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.0006447010673582554</v>
+        <v>1.220489403985781e-10</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.001070989179424942</v>
+        <v>1.596914545043404e-10</v>
       </c>
       <c r="EK9" t="n">
-        <v>0.00308397738263011</v>
+        <v>1.697962048741175e-10</v>
       </c>
       <c r="EL9" t="n">
-        <v>0.0013646159786731</v>
+        <v>4.048597568306889e-11</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.0001805175561457872</v>
+        <v>1.529774570907527e-12</v>
       </c>
       <c r="EN9" t="n">
-        <v>0.0004033937002532184</v>
+        <v>9.919035037775359e-11</v>
       </c>
       <c r="EO9" t="n">
-        <v>0.001270545530132949</v>
+        <v>8.868480949608681e-11</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.001362517010420561</v>
+        <v>1.247968950401912e-10</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.002238248009234667</v>
+        <v>1.506309244003745e-10</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.002533830935135484</v>
+        <v>1.585011566440642e-10</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.00158958334941417</v>
+        <v>2.349345717966855e-10</v>
       </c>
       <c r="ET9" t="n">
-        <v>0.002251217607408762</v>
+        <v>1.005798846986927e-10</v>
       </c>
       <c r="EU9" t="n">
-        <v>0.001593009335920215</v>
+        <v>2.10036765757593e-10</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.0005565620958805084</v>
+        <v>3.418628435891691e-10</v>
       </c>
       <c r="EW9" t="n">
-        <v>0.001570170978084207</v>
+        <v>3.556340638644073e-11</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.002682423451915383</v>
+        <v>7.933792511849447e-11</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.00169946055393666</v>
+        <v>4.411376819390966e-11</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.001198244863189757</v>
+        <v>1.397547876036409e-11</v>
       </c>
       <c r="FA9" t="n">
-        <v>0.0001384108909405768</v>
+        <v>2.670083945610635e-11</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.0002063967403955758</v>
+        <v>5.303160688363562e-11</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.0002815659390762448</v>
+        <v>2.950534261358939e-11</v>
       </c>
       <c r="FD9" t="n">
-        <v>0.0005491948686540127</v>
+        <v>9.143080736961906e-11</v>
       </c>
       <c r="FE9" t="n">
-        <v>0.0001618430251255631</v>
+        <v>5.809252384691987e-12</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.0005802156520076096</v>
+        <v>1.915070046987211e-10</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.002195211593061686</v>
+        <v>2.798505177592503e-11</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.0008175229886546731</v>
+        <v>4.801951891675316e-11</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.0001136511273216456</v>
+        <v>3.772857581907374e-10</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0.002553088124841452</v>
+        <v>3.127055836493753e-10</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.002520587760955095</v>
+        <v>1.189350840036241e-10</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.001540568424388766</v>
+        <v>3.513095370166752e-10</v>
       </c>
       <c r="FM9" t="n">
-        <v>0.002130284905433655</v>
+        <v>1.028941098990543e-10</v>
       </c>
       <c r="FN9" t="n">
-        <v>0.00216198991984129</v>
+        <v>3.156073180576868e-10</v>
       </c>
       <c r="FO9" t="n">
-        <v>0.0002219736925326288</v>
+        <v>3.608200405125217e-10</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.001308706821873784</v>
+        <v>1.451436609789525e-10</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.00316029298119247</v>
+        <v>2.547125010909923e-11</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.0006487497594207525</v>
+        <v>4.285269639137113e-10</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.003030951367691159</v>
+        <v>3.491691380475004e-10</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.0002317888429388404</v>
+        <v>3.348402666247807e-10</v>
       </c>
       <c r="FU9" t="n">
-        <v>0.001968035707250237</v>
+        <v>1.579856245825795e-10</v>
       </c>
       <c r="FV9" t="n">
-        <v>0.001075874781236053</v>
+        <v>1.670632659989124e-10</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.002169294049963355</v>
+        <v>7.877965640945561e-11</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.0004151441680733114</v>
+        <v>9.796199962330832e-11</v>
       </c>
       <c r="FY9" t="n">
-        <v>9.587060776539147e-05</v>
+        <v>2.487227368508371e-10</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.0001705366012174636</v>
+        <v>4.207606207895509e-10</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.0001455378660466522</v>
+        <v>1.873202565283449e-10</v>
       </c>
       <c r="GB9" t="n">
-        <v>0.002152538392692804</v>
+        <v>1.948531891393657e-10</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.002500168513506651</v>
+        <v>3.681468740968086e-10</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.001047945697791874</v>
+        <v>1.272211502811871e-12</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.002076460514217615</v>
+        <v>2.613165586695665e-11</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.000289450865238905</v>
+        <v>3.306583895579251e-10</v>
       </c>
       <c r="GG9" t="n">
-        <v>0.0003565352526493371</v>
+        <v>9.497055225571316e-11</v>
       </c>
     </row>
   </sheetData>
